--- a/Vertrieb.xlsx
+++ b/Vertrieb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" activeTab="1" xr2:uid="{1CFAF433-DB7A-44B0-AAB8-549F054C11FA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" activeTab="2" xr2:uid="{1CFAF433-DB7A-44B0-AAB8-549F054C11FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Vertrieb</t>
   </si>
@@ -230,7 +230,16 @@
     <t>Mitarbeiter</t>
   </si>
   <si>
-    <t>Kumulierter Maximalbetrag</t>
+    <t>monatlich</t>
+  </si>
+  <si>
+    <t>mit Zahlungsziel von 6 Monaten</t>
+  </si>
+  <si>
+    <t>monatlich (ZZ6)</t>
+  </si>
+  <si>
+    <t>Bilanz (ZZ6)</t>
   </si>
 </sst>
 </file>
@@ -370,7 +379,67 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -459,7 +528,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Bilanz</a:t>
+              <a:t>Gesamtbilanz</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -533,112 +602,112 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9275</c:v>
+                  <c:v>-9515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9300</c:v>
+                  <c:v>-9800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8625</c:v>
+                  <c:v>-9795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7450</c:v>
+                  <c:v>-9440</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5825</c:v>
+                  <c:v>-8675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3300</c:v>
+                  <c:v>-7470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-75</c:v>
+                  <c:v>-5765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3850</c:v>
+                  <c:v>-3640</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8425</c:v>
+                  <c:v>-1095</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13650</c:v>
+                  <c:v>1840</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19525</c:v>
+                  <c:v>5165</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26050</c:v>
+                  <c:v>8880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20498.5</c:v>
+                  <c:v>3829</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17547</c:v>
+                  <c:v>1138</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15195.5</c:v>
+                  <c:v>-1193</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13444</c:v>
+                  <c:v>-3164</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12242.5</c:v>
+                  <c:v>-4805</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11591</c:v>
+                  <c:v>-6116</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11489.5</c:v>
+                  <c:v>-7097</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11938</c:v>
+                  <c:v>-7748</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12936.5</c:v>
+                  <c:v>-8069</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14435</c:v>
+                  <c:v>-8090</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16433.5</c:v>
+                  <c:v>-7811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18932</c:v>
+                  <c:v>-7232</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19905.5</c:v>
+                  <c:v>-8378</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23329</c:v>
+                  <c:v>-7224</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27202.5</c:v>
+                  <c:v>-5800</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31526</c:v>
+                  <c:v>-4106</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36299.5</c:v>
+                  <c:v>-2142</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41523</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>47196.5</c:v>
+                  <c:v>2596</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>53270</c:v>
+                  <c:v>5340</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>59743.5</c:v>
+                  <c:v>8324</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>66617</c:v>
+                  <c:v>11548</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>73890.5</c:v>
+                  <c:v>15012</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>81564</c:v>
+                  <c:v>18716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,7 +933,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Kumulierter Kapitalbedarf</a:t>
+              <a:t>monatlich</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -904,117 +973,117 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$40:$AM$40</c:f>
+              <c:f>Tabelle1!$D$39:$AM$39</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9275</c:v>
+                  <c:v>-9515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18575</c:v>
+                  <c:v>-285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-27200</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-34650</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-40475</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-43775</c:v>
+                  <c:v>1205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-43850</c:v>
+                  <c:v>1705</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-40000</c:v>
+                  <c:v>2125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-31575</c:v>
+                  <c:v>2545</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-17925</c:v>
+                  <c:v>2935</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1600</c:v>
+                  <c:v>3325</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27650</c:v>
+                  <c:v>3715</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48148.5</c:v>
+                  <c:v>-5051</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65695.5</c:v>
+                  <c:v>-2691</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80891</c:v>
+                  <c:v>-2331</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94335</c:v>
+                  <c:v>-1971</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>106577.5</c:v>
+                  <c:v>-1641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118168.5</c:v>
+                  <c:v>-1311</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>129658</c:v>
+                  <c:v>-981</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141596</c:v>
+                  <c:v>-651</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>154532.5</c:v>
+                  <c:v>-321</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>168967.5</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>185401</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>204333</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>224238.5</c:v>
+                  <c:v>-1146</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>247567.5</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>274770</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>306296</c:v>
+                  <c:v>1694</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>342595.5</c:v>
+                  <c:v>1964</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>384118.5</c:v>
+                  <c:v>2234</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>431315</c:v>
+                  <c:v>2504</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>484585</c:v>
+                  <c:v>2744</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>544328.5</c:v>
+                  <c:v>2984</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>610945.5</c:v>
+                  <c:v>3224</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>684836</c:v>
+                  <c:v>3464</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>766400</c:v>
+                  <c:v>3704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,22 +1372,22 @@
                 <c:ptCount val="36"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>5</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10</c:v>
+                    <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>10</c:v>
+                    <c:v>9</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>10</c:v>
+                    <c:v>11</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>15</c:v>
+                    <c:v>13</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>15</c:v>
@@ -1531,22 +1600,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15</c:v>
@@ -1693,22 +1762,22 @@
                 <c:ptCount val="36"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>5</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10</c:v>
+                    <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>10</c:v>
+                    <c:v>9</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>10</c:v>
+                    <c:v>11</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>15</c:v>
+                    <c:v>13</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>15</c:v>
@@ -1921,112 +1990,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>130</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>145</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>160</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>175</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>190</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>205</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>220</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>235</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>265</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>280</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>295</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>310</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>325</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>340</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>355</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>370</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>385</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>400</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>415</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>430</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>445</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>460</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>475</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>490</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>505</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,22 +2155,22 @@
                 <c:ptCount val="36"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>5</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10</c:v>
+                    <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>10</c:v>
+                    <c:v>9</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>10</c:v>
+                    <c:v>11</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>15</c:v>
+                    <c:v>13</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>15</c:v>
@@ -2314,112 +2383,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>120</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>133</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>145</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>157</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>169</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>181</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>192</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>214</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>225</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>236</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>246</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>256</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>266</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>276</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>285</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>294</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>303</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>312</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>321</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>330</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>338</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>346</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>354</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>362</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>370</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2946,7 +3015,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Bilanz</a:t>
+              <a:t>Gesamtbilanz</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2967,7 +3036,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:yVal>
             <c:numRef>
@@ -2976,112 +3045,112 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9275</c:v>
+                  <c:v>-9515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9300</c:v>
+                  <c:v>-9800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8625</c:v>
+                  <c:v>-9795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7450</c:v>
+                  <c:v>-9440</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5825</c:v>
+                  <c:v>-8675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3300</c:v>
+                  <c:v>-7470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-75</c:v>
+                  <c:v>-5765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3850</c:v>
+                  <c:v>-3640</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8425</c:v>
+                  <c:v>-1095</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13650</c:v>
+                  <c:v>1840</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19525</c:v>
+                  <c:v>5165</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26050</c:v>
+                  <c:v>8880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20498.5</c:v>
+                  <c:v>3829</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17547</c:v>
+                  <c:v>1138</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15195.5</c:v>
+                  <c:v>-1193</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13444</c:v>
+                  <c:v>-3164</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12242.5</c:v>
+                  <c:v>-4805</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11591</c:v>
+                  <c:v>-6116</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11489.5</c:v>
+                  <c:v>-7097</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11938</c:v>
+                  <c:v>-7748</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12936.5</c:v>
+                  <c:v>-8069</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14435</c:v>
+                  <c:v>-8090</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16433.5</c:v>
+                  <c:v>-7811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18932</c:v>
+                  <c:v>-7232</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19905.5</c:v>
+                  <c:v>-8378</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23329</c:v>
+                  <c:v>-7224</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27202.5</c:v>
+                  <c:v>-5800</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31526</c:v>
+                  <c:v>-4106</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36299.5</c:v>
+                  <c:v>-2142</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41523</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>47196.5</c:v>
+                  <c:v>2596</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>53270</c:v>
+                  <c:v>5340</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>59743.5</c:v>
+                  <c:v>8324</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>66617</c:v>
+                  <c:v>11548</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>73890.5</c:v>
+                  <c:v>15012</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>81564</c:v>
+                  <c:v>18716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3089,13 +3158,276 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-36AA-42E8-8D6F-1CA06F932B13}"/>
+              <c16:uniqueId val="{00000007-36AA-42E8-8D6F-1CA06F932B13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$37:$AM$37</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7748</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8090</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7232</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8324</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-36AA-42E8-8D6F-1CA06F932B13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$37:$AM$37</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7748</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8090</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7232</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8324</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-36AA-42E8-8D6F-1CA06F932B13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3127,112 +3459,112 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9275</c:v>
+                  <c:v>-9515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9300</c:v>
+                  <c:v>-9800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8625</c:v>
+                  <c:v>-9795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7450</c:v>
+                  <c:v>-9440</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5825</c:v>
+                  <c:v>-8675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3300</c:v>
+                  <c:v>-7470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-75</c:v>
+                  <c:v>-5765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3850</c:v>
+                  <c:v>-3640</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8425</c:v>
+                  <c:v>-1095</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13650</c:v>
+                  <c:v>1840</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19525</c:v>
+                  <c:v>5165</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26050</c:v>
+                  <c:v>8880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20498.5</c:v>
+                  <c:v>3829</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17547</c:v>
+                  <c:v>1138</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15195.5</c:v>
+                  <c:v>-1193</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13444</c:v>
+                  <c:v>-3164</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12242.5</c:v>
+                  <c:v>-4805</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11591</c:v>
+                  <c:v>-6116</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11489.5</c:v>
+                  <c:v>-7097</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11938</c:v>
+                  <c:v>-7748</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12936.5</c:v>
+                  <c:v>-8069</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14435</c:v>
+                  <c:v>-8090</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16433.5</c:v>
+                  <c:v>-7811</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18932</c:v>
+                  <c:v>-7232</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19905.5</c:v>
+                  <c:v>-8378</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23329</c:v>
+                  <c:v>-7224</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27202.5</c:v>
+                  <c:v>-5800</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31526</c:v>
+                  <c:v>-4106</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36299.5</c:v>
+                  <c:v>-2142</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41523</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>47196.5</c:v>
+                  <c:v>2596</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>53270</c:v>
+                  <c:v>5340</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>59743.5</c:v>
+                  <c:v>8324</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>66617</c:v>
+                  <c:v>11548</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>73890.5</c:v>
+                  <c:v>15012</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>81564</c:v>
+                  <c:v>18716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3240,7 +3572,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-36AA-42E8-8D6F-1CA06F932B13}"/>
+              <c16:uniqueId val="{00000006-36AA-42E8-8D6F-1CA06F932B13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3436,7 +3768,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Kumulierter Kapitalbedarf</a:t>
+              <a:t>monatlich</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3476,117 +3808,117 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$40:$AM$40</c:f>
+              <c:f>Tabelle1!$D$39:$AM$39</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9275</c:v>
+                  <c:v>-9515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18575</c:v>
+                  <c:v>-285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-27200</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-34650</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-40475</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-43775</c:v>
+                  <c:v>1205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-43850</c:v>
+                  <c:v>1705</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-40000</c:v>
+                  <c:v>2125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-31575</c:v>
+                  <c:v>2545</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-17925</c:v>
+                  <c:v>2935</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1600</c:v>
+                  <c:v>3325</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27650</c:v>
+                  <c:v>3715</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48148.5</c:v>
+                  <c:v>-5051</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65695.5</c:v>
+                  <c:v>-2691</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80891</c:v>
+                  <c:v>-2331</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94335</c:v>
+                  <c:v>-1971</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>106577.5</c:v>
+                  <c:v>-1641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118168.5</c:v>
+                  <c:v>-1311</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>129658</c:v>
+                  <c:v>-981</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141596</c:v>
+                  <c:v>-651</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>154532.5</c:v>
+                  <c:v>-321</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>168967.5</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>185401</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>204333</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>224238.5</c:v>
+                  <c:v>-1146</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>247567.5</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>274770</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>306296</c:v>
+                  <c:v>1694</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>342595.5</c:v>
+                  <c:v>1964</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>384118.5</c:v>
+                  <c:v>2234</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>431315</c:v>
+                  <c:v>2504</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>484585</c:v>
+                  <c:v>2744</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>544328.5</c:v>
+                  <c:v>2984</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>610945.5</c:v>
+                  <c:v>3224</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>684836</c:v>
+                  <c:v>3464</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>766400</c:v>
+                  <c:v>3704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3595,6 +3927,751 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D1CC-4F97-8D33-9C1EF3C1FBCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468337599"/>
+        <c:axId val="478418383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468337599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478418383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="478418383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468337599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>monatlich ZZ:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> 6mon</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$43:$AM$43</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7421</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4581</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4191</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3411</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2691</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2331</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1971</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1641</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1311</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-676</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-346</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1154</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1694</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2420-4227-AA25-4975D25BFF99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468337599"/>
+        <c:axId val="478418383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468337599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478418383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="478418383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468337599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Gesamtbilanz ZZ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>: 6Monate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16417800395037957"/>
+          <c:y val="0.1296336206896552"/>
+          <c:w val="0.81020336431745155"/>
+          <c:h val="0.82726293103448278"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$46:$AM$46</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-12625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-13350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-13865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-14150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-14145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13790</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-13025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-11820</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-19241</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-24242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-28823</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-33014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-36815</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-40226</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-43277</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-45968</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-48299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-50270</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-51911</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-53222</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-56228</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-56904</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-57250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-57296</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-57042</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-56488</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-55634</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-54480</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-53056</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-51362</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-49398</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-47164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5E4-4B71-A531-74593E53F5D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$47:$AM$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5E4-4B71-A531-74593E53F5D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4871,15 +5948,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4909,16 +5986,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5059,6 +6136,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DC151F-767F-4ACE-BF7C-B71FB6E9FDD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382C76D2-769D-45EA-9087-A98019AEFB73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5364,10 +6517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DFB736-33AD-48F1-9A2F-645E6D17BC5B}">
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D3" sqref="D3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5512,22 +6665,22 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -5630,7 +6783,7 @@
       </c>
       <c r="D4" s="5">
         <f>D3*$C$4</f>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:O4" si="0">E3*$C$4</f>
@@ -5638,19 +6791,19 @@
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" si="0"/>
@@ -5780,147 +6933,147 @@
       <c r="C5" s="8"/>
       <c r="D5">
         <f>D3+C5</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:AM5" si="24">E3+D5</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I5">
         <f t="shared" si="24"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <f t="shared" si="24"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K5">
         <f t="shared" si="24"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L5">
         <f t="shared" si="24"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M5">
         <f t="shared" si="24"/>
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <f t="shared" si="24"/>
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O5">
         <f t="shared" si="24"/>
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="P5">
         <f t="shared" si="24"/>
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <f t="shared" si="24"/>
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R5">
         <f t="shared" si="24"/>
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="S5">
         <f t="shared" si="24"/>
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="T5">
         <f t="shared" si="24"/>
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="U5">
         <f t="shared" si="24"/>
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="V5">
         <f t="shared" si="24"/>
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="W5">
         <f t="shared" si="24"/>
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="X5">
         <f t="shared" si="24"/>
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Y5">
         <f t="shared" si="24"/>
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Z5">
         <f t="shared" si="24"/>
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AA5">
         <f t="shared" si="24"/>
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AB5">
         <f t="shared" si="24"/>
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AC5">
         <f t="shared" si="24"/>
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AD5">
         <f t="shared" si="24"/>
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AE5">
         <f t="shared" si="24"/>
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AF5">
         <f t="shared" si="24"/>
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AG5">
         <f t="shared" si="24"/>
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AH5">
         <f t="shared" si="24"/>
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AI5">
         <f t="shared" si="24"/>
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="24"/>
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AK5">
         <f t="shared" si="24"/>
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AL5">
         <f t="shared" si="24"/>
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AM5" s="8">
         <f t="shared" si="24"/>
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
@@ -5932,147 +7085,147 @@
       </c>
       <c r="D6">
         <f>D5</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:L6" si="25">ROUND(D6*$C$6+E3,0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <f t="shared" si="25"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <f t="shared" si="25"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I6">
         <f t="shared" si="25"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <f t="shared" si="25"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K6">
         <f t="shared" si="25"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L6">
         <f t="shared" si="25"/>
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M6">
         <f t="shared" ref="M6:AM6" si="26">ROUND(L6*$C$6+M3,0)</f>
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N6">
         <f t="shared" si="26"/>
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O6">
         <f t="shared" si="26"/>
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P6">
         <f t="shared" si="26"/>
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <f t="shared" si="26"/>
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="R6">
         <f t="shared" si="26"/>
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="S6">
         <f t="shared" si="26"/>
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="T6">
         <f t="shared" si="26"/>
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="U6">
         <f t="shared" si="26"/>
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="V6">
         <f t="shared" si="26"/>
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="W6">
         <f t="shared" si="26"/>
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="X6">
         <f t="shared" si="26"/>
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Y6">
         <f t="shared" si="26"/>
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Z6">
         <f t="shared" si="26"/>
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AA6">
         <f t="shared" si="26"/>
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AB6">
         <f t="shared" si="26"/>
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AC6">
         <f t="shared" si="26"/>
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AD6">
         <f t="shared" si="26"/>
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AE6">
         <f t="shared" si="26"/>
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AF6">
         <f t="shared" si="26"/>
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AG6">
         <f t="shared" si="26"/>
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AH6">
         <f t="shared" si="26"/>
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AI6">
         <f t="shared" si="26"/>
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="26"/>
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AK6">
         <f t="shared" si="26"/>
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AL6">
         <f t="shared" si="26"/>
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AM6" s="8">
         <f t="shared" si="26"/>
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6081,151 +7234,151 @@
       </c>
       <c r="C7" s="9">
         <f>Eingabemaske!B2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5">
         <f>D6*$C$7</f>
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:AM7" si="27">E6*$C$7</f>
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="27"/>
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="27"/>
-        <v>1500</v>
+        <v>720</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="27"/>
-        <v>1950</v>
+        <v>1050</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="27"/>
-        <v>2650</v>
+        <v>1410</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="27"/>
-        <v>3350</v>
+        <v>1830</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="27"/>
-        <v>4050</v>
+        <v>2250</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="27"/>
-        <v>4700</v>
+        <v>2670</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" si="27"/>
-        <v>5350</v>
+        <v>3060</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" si="27"/>
-        <v>6000</v>
+        <v>3450</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="27"/>
-        <v>6650</v>
+        <v>3840</v>
       </c>
       <c r="P7" s="5">
         <f t="shared" si="27"/>
-        <v>7250</v>
+        <v>4200</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="27"/>
-        <v>7850</v>
+        <v>4560</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" si="27"/>
-        <v>8450</v>
+        <v>4920</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="27"/>
-        <v>9050</v>
+        <v>5280</v>
       </c>
       <c r="T7" s="5">
         <f t="shared" si="27"/>
-        <v>9600</v>
+        <v>5610</v>
       </c>
       <c r="U7" s="5">
         <f t="shared" si="27"/>
-        <v>10150</v>
+        <v>5940</v>
       </c>
       <c r="V7" s="5">
         <f t="shared" si="27"/>
-        <v>10700</v>
+        <v>6270</v>
       </c>
       <c r="W7" s="5">
         <f t="shared" si="27"/>
-        <v>11250</v>
+        <v>6600</v>
       </c>
       <c r="X7" s="5">
         <f t="shared" si="27"/>
-        <v>11800</v>
+        <v>6930</v>
       </c>
       <c r="Y7" s="5">
         <f t="shared" si="27"/>
-        <v>12300</v>
+        <v>7230</v>
       </c>
       <c r="Z7" s="5">
         <f t="shared" si="27"/>
-        <v>12800</v>
+        <v>7530</v>
       </c>
       <c r="AA7" s="5">
         <f t="shared" si="27"/>
-        <v>13300</v>
+        <v>7830</v>
       </c>
       <c r="AB7" s="5">
         <f t="shared" si="27"/>
-        <v>13800</v>
+        <v>8130</v>
       </c>
       <c r="AC7" s="5">
         <f t="shared" si="27"/>
-        <v>14250</v>
+        <v>8430</v>
       </c>
       <c r="AD7" s="5">
         <f t="shared" si="27"/>
-        <v>14700</v>
+        <v>8700</v>
       </c>
       <c r="AE7" s="5">
         <f t="shared" si="27"/>
-        <v>15150</v>
+        <v>8970</v>
       </c>
       <c r="AF7" s="5">
         <f t="shared" si="27"/>
-        <v>15600</v>
+        <v>9240</v>
       </c>
       <c r="AG7" s="5">
         <f t="shared" si="27"/>
-        <v>16050</v>
+        <v>9510</v>
       </c>
       <c r="AH7" s="5">
         <f t="shared" si="27"/>
-        <v>16500</v>
+        <v>9780</v>
       </c>
       <c r="AI7" s="5">
         <f t="shared" si="27"/>
-        <v>16900</v>
+        <v>10020</v>
       </c>
       <c r="AJ7" s="5">
         <f t="shared" si="27"/>
-        <v>17300</v>
+        <v>10260</v>
       </c>
       <c r="AK7" s="5">
         <f t="shared" si="27"/>
-        <v>17700</v>
+        <v>10500</v>
       </c>
       <c r="AL7" s="5">
         <f t="shared" si="27"/>
-        <v>18100</v>
+        <v>10740</v>
       </c>
       <c r="AM7" s="15">
         <f t="shared" si="27"/>
-        <v>18500</v>
+        <v>10980</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -6234,151 +7387,151 @@
       </c>
       <c r="C8" s="10">
         <f t="shared" ref="C8:AM8" si="28">C4+C7</f>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="28"/>
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="28"/>
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="28"/>
-        <v>1400</v>
+        <v>730</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="28"/>
-        <v>1900</v>
+        <v>1080</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="28"/>
-        <v>2350</v>
+        <v>1490</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="28"/>
-        <v>3250</v>
+        <v>1930</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="28"/>
-        <v>3950</v>
+        <v>2430</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="28"/>
-        <v>4650</v>
+        <v>2850</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" si="28"/>
-        <v>5300</v>
+        <v>3270</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="28"/>
-        <v>5950</v>
+        <v>3660</v>
       </c>
       <c r="N8" s="7">
         <f t="shared" si="28"/>
-        <v>6600</v>
+        <v>4050</v>
       </c>
       <c r="O8" s="7">
         <f t="shared" si="28"/>
-        <v>7250</v>
+        <v>4440</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" si="28"/>
-        <v>7850</v>
+        <v>4800</v>
       </c>
       <c r="Q8" s="7">
         <f t="shared" si="28"/>
-        <v>8450</v>
+        <v>5160</v>
       </c>
       <c r="R8" s="7">
         <f t="shared" si="28"/>
-        <v>9050</v>
+        <v>5520</v>
       </c>
       <c r="S8" s="7">
         <f t="shared" si="28"/>
-        <v>9650</v>
+        <v>5880</v>
       </c>
       <c r="T8" s="7">
         <f t="shared" si="28"/>
-        <v>10200</v>
+        <v>6210</v>
       </c>
       <c r="U8" s="7">
         <f t="shared" si="28"/>
-        <v>10750</v>
+        <v>6540</v>
       </c>
       <c r="V8" s="7">
         <f t="shared" si="28"/>
-        <v>11300</v>
+        <v>6870</v>
       </c>
       <c r="W8" s="7">
         <f t="shared" si="28"/>
-        <v>11850</v>
+        <v>7200</v>
       </c>
       <c r="X8" s="7">
         <f t="shared" si="28"/>
-        <v>12400</v>
+        <v>7530</v>
       </c>
       <c r="Y8" s="7">
         <f t="shared" si="28"/>
-        <v>12900</v>
+        <v>7830</v>
       </c>
       <c r="Z8" s="7">
         <f t="shared" si="28"/>
-        <v>13400</v>
+        <v>8130</v>
       </c>
       <c r="AA8" s="7">
         <f t="shared" si="28"/>
-        <v>13900</v>
+        <v>8430</v>
       </c>
       <c r="AB8" s="7">
         <f t="shared" si="28"/>
-        <v>14400</v>
+        <v>8730</v>
       </c>
       <c r="AC8" s="7">
         <f t="shared" si="28"/>
-        <v>14850</v>
+        <v>9030</v>
       </c>
       <c r="AD8" s="7">
         <f t="shared" si="28"/>
-        <v>15300</v>
+        <v>9300</v>
       </c>
       <c r="AE8" s="7">
         <f t="shared" si="28"/>
-        <v>15750</v>
+        <v>9570</v>
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="28"/>
-        <v>16200</v>
+        <v>9840</v>
       </c>
       <c r="AG8" s="7">
         <f t="shared" si="28"/>
-        <v>16650</v>
+        <v>10110</v>
       </c>
       <c r="AH8" s="7">
         <f t="shared" si="28"/>
-        <v>17100</v>
+        <v>10380</v>
       </c>
       <c r="AI8" s="7">
         <f t="shared" si="28"/>
-        <v>17500</v>
+        <v>10620</v>
       </c>
       <c r="AJ8" s="7">
         <f t="shared" si="28"/>
-        <v>17900</v>
+        <v>10860</v>
       </c>
       <c r="AK8" s="7">
         <f t="shared" si="28"/>
-        <v>18300</v>
+        <v>11100</v>
       </c>
       <c r="AL8" s="7">
         <f t="shared" si="28"/>
-        <v>18700</v>
+        <v>11340</v>
       </c>
       <c r="AM8" s="10">
         <f t="shared" si="28"/>
-        <v>19100</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.3">
@@ -6390,151 +7543,151 @@
     <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D10" s="5">
         <f>C10+D8</f>
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ref="E10:AM10" si="29">D10+E8</f>
-        <v>1150</v>
+        <v>650</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="29"/>
-        <v>2550</v>
+        <v>1380</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="29"/>
-        <v>4450</v>
+        <v>2460</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="29"/>
-        <v>6800</v>
+        <v>3950</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="29"/>
-        <v>10050</v>
+        <v>5880</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="29"/>
-        <v>14000</v>
+        <v>8310</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="29"/>
-        <v>18650</v>
+        <v>11160</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="29"/>
-        <v>23950</v>
+        <v>14430</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" si="29"/>
-        <v>29900</v>
+        <v>18090</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" si="29"/>
-        <v>36500</v>
+        <v>22140</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="29"/>
-        <v>43750</v>
+        <v>26580</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="29"/>
-        <v>51600</v>
+        <v>31380</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="29"/>
-        <v>60050</v>
+        <v>36540</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="29"/>
-        <v>69100</v>
+        <v>42060</v>
       </c>
       <c r="S10" s="5">
         <f t="shared" si="29"/>
-        <v>78750</v>
+        <v>47940</v>
       </c>
       <c r="T10" s="5">
         <f t="shared" si="29"/>
-        <v>88950</v>
+        <v>54150</v>
       </c>
       <c r="U10" s="5">
         <f t="shared" si="29"/>
-        <v>99700</v>
+        <v>60690</v>
       </c>
       <c r="V10" s="5">
         <f t="shared" si="29"/>
-        <v>111000</v>
+        <v>67560</v>
       </c>
       <c r="W10" s="5">
         <f t="shared" si="29"/>
-        <v>122850</v>
+        <v>74760</v>
       </c>
       <c r="X10" s="5">
         <f t="shared" si="29"/>
-        <v>135250</v>
+        <v>82290</v>
       </c>
       <c r="Y10" s="5">
         <f t="shared" si="29"/>
-        <v>148150</v>
+        <v>90120</v>
       </c>
       <c r="Z10" s="5">
         <f t="shared" si="29"/>
-        <v>161550</v>
+        <v>98250</v>
       </c>
       <c r="AA10" s="5">
         <f t="shared" si="29"/>
-        <v>175450</v>
+        <v>106680</v>
       </c>
       <c r="AB10" s="5">
         <f t="shared" si="29"/>
-        <v>189850</v>
+        <v>115410</v>
       </c>
       <c r="AC10" s="5">
         <f t="shared" si="29"/>
-        <v>204700</v>
+        <v>124440</v>
       </c>
       <c r="AD10" s="5">
         <f t="shared" si="29"/>
-        <v>220000</v>
+        <v>133740</v>
       </c>
       <c r="AE10" s="5">
         <f t="shared" si="29"/>
-        <v>235750</v>
+        <v>143310</v>
       </c>
       <c r="AF10" s="5">
         <f t="shared" si="29"/>
-        <v>251950</v>
+        <v>153150</v>
       </c>
       <c r="AG10" s="5">
         <f t="shared" si="29"/>
-        <v>268600</v>
+        <v>163260</v>
       </c>
       <c r="AH10" s="5">
         <f t="shared" si="29"/>
-        <v>285700</v>
+        <v>173640</v>
       </c>
       <c r="AI10" s="5">
         <f t="shared" si="29"/>
-        <v>303200</v>
+        <v>184260</v>
       </c>
       <c r="AJ10" s="5">
         <f t="shared" si="29"/>
-        <v>321100</v>
+        <v>195120</v>
       </c>
       <c r="AK10" s="5">
         <f t="shared" si="29"/>
-        <v>339400</v>
+        <v>206220</v>
       </c>
       <c r="AL10" s="5">
         <f t="shared" si="29"/>
-        <v>358100</v>
+        <v>217560</v>
       </c>
       <c r="AM10" s="15">
         <f t="shared" si="29"/>
-        <v>377200</v>
+        <v>229140</v>
       </c>
       <c r="AN10" s="5">
         <f>AM10+AN8</f>
-        <v>377200</v>
+        <v>229140</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.3">
@@ -7585,7 +8738,7 @@
       </c>
       <c r="D28" s="5">
         <f>D3*$C$28</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ref="E28:AM28" si="39">E3*$C$28</f>
@@ -7593,19 +8746,19 @@
       </c>
       <c r="F28" s="5">
         <f t="shared" si="39"/>
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="39"/>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="39"/>
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="39"/>
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="39"/>
@@ -7750,7 +8903,7 @@
       </c>
       <c r="C31" s="13">
         <f>Eingabemaske!B5</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AM31" s="8"/>
     </row>
@@ -7760,7 +8913,7 @@
       </c>
       <c r="C32" s="13">
         <f>C31*0.15/2+C31*0.03/2+C31*0.187/2</f>
-        <v>550.5</v>
+        <v>367</v>
       </c>
       <c r="AM32" s="8"/>
     </row>
@@ -7770,7 +8923,7 @@
       </c>
       <c r="C33" s="13">
         <f>(C31-C32)*0.77</f>
-        <v>1886.115</v>
+        <v>1257.4100000000001</v>
       </c>
       <c r="AM33" s="8"/>
     </row>
@@ -7780,7 +8933,7 @@
       </c>
       <c r="C34" s="13">
         <f>C31+C32</f>
-        <v>3550.5</v>
+        <v>2367</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -7796,99 +8949,99 @@
       <c r="O34" s="13"/>
       <c r="P34" s="13">
         <f t="shared" ref="P34:AM34" si="40">$C30*$C34</f>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="Q34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="R34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="S34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="T34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="U34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="V34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="W34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="X34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="Y34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="Z34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AA34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AB34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AC34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AD34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AE34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AF34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AG34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AH34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AI34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AJ34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AK34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AL34" s="13">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AM34" s="9">
         <f t="shared" si="40"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="AN34" s="13"/>
     </row>
@@ -7943,103 +9096,103 @@
       </c>
       <c r="P35" s="13">
         <f t="shared" si="41"/>
-        <v>10651.5</v>
+        <v>7101</v>
       </c>
       <c r="Q35" s="13">
         <f t="shared" si="41"/>
-        <v>21303</v>
+        <v>14202</v>
       </c>
       <c r="R35" s="13">
         <f t="shared" si="41"/>
-        <v>31954.5</v>
+        <v>21303</v>
       </c>
       <c r="S35" s="13">
         <f t="shared" si="41"/>
-        <v>42606</v>
+        <v>28404</v>
       </c>
       <c r="T35" s="13">
         <f t="shared" si="41"/>
-        <v>53257.5</v>
+        <v>35505</v>
       </c>
       <c r="U35" s="13">
         <f t="shared" si="41"/>
-        <v>63909</v>
+        <v>42606</v>
       </c>
       <c r="V35" s="13">
         <f t="shared" si="41"/>
-        <v>74560.5</v>
+        <v>49707</v>
       </c>
       <c r="W35" s="13">
         <f t="shared" si="41"/>
-        <v>85212</v>
+        <v>56808</v>
       </c>
       <c r="X35" s="13">
         <f t="shared" si="41"/>
-        <v>95863.5</v>
+        <v>63909</v>
       </c>
       <c r="Y35" s="13">
         <f t="shared" si="41"/>
-        <v>106515</v>
+        <v>71010</v>
       </c>
       <c r="Z35" s="13">
         <f t="shared" si="41"/>
-        <v>117166.5</v>
+        <v>78111</v>
       </c>
       <c r="AA35" s="13">
         <f t="shared" si="41"/>
-        <v>127818</v>
+        <v>85212</v>
       </c>
       <c r="AB35" s="13">
         <f t="shared" si="41"/>
-        <v>138469.5</v>
+        <v>92313</v>
       </c>
       <c r="AC35" s="13">
         <f t="shared" si="41"/>
-        <v>149121</v>
+        <v>99414</v>
       </c>
       <c r="AD35" s="13">
         <f t="shared" si="41"/>
-        <v>159772.5</v>
+        <v>106515</v>
       </c>
       <c r="AE35" s="13">
         <f t="shared" si="41"/>
-        <v>170424</v>
+        <v>113616</v>
       </c>
       <c r="AF35" s="13">
         <f t="shared" si="41"/>
-        <v>181075.5</v>
+        <v>120717</v>
       </c>
       <c r="AG35" s="13">
         <f t="shared" si="41"/>
-        <v>191727</v>
+        <v>127818</v>
       </c>
       <c r="AH35" s="13">
         <f t="shared" si="41"/>
-        <v>202378.5</v>
+        <v>134919</v>
       </c>
       <c r="AI35" s="13">
         <f t="shared" si="41"/>
-        <v>213030</v>
+        <v>142020</v>
       </c>
       <c r="AJ35" s="13">
         <f t="shared" si="41"/>
-        <v>223681.5</v>
+        <v>149121</v>
       </c>
       <c r="AK35" s="13">
         <f t="shared" si="41"/>
-        <v>234333</v>
+        <v>156222</v>
       </c>
       <c r="AL35" s="13">
         <f t="shared" si="41"/>
-        <v>244984.5</v>
+        <v>163323</v>
       </c>
       <c r="AM35" s="9">
         <f t="shared" si="41"/>
-        <v>255636</v>
+        <v>170424</v>
       </c>
       <c r="AN35" s="13">
         <f t="shared" si="41"/>
-        <v>255636</v>
+        <v>170424</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.3">
@@ -8050,312 +9203,925 @@
         <v>60</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" ref="D37:AN37" si="42">D10-D26-D35</f>
-        <v>-9275</v>
+        <f>D10-D26-D35</f>
+        <v>-9515</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="42"/>
-        <v>-9300</v>
+        <f t="shared" ref="D37:AN37" si="42">E10-E26-E35</f>
+        <v>-9800</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="42"/>
-        <v>-8625</v>
+        <v>-9795</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="42"/>
-        <v>-7450</v>
+        <v>-9440</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="42"/>
-        <v>-5825</v>
+        <v>-8675</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="42"/>
-        <v>-3300</v>
+        <v>-7470</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" si="42"/>
-        <v>-75</v>
+        <v>-5765</v>
       </c>
       <c r="K37" s="5">
         <f t="shared" si="42"/>
-        <v>3850</v>
+        <v>-3640</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="42"/>
-        <v>8425</v>
+        <v>-1095</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" si="42"/>
-        <v>13650</v>
+        <v>1840</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="42"/>
-        <v>19525</v>
+        <v>5165</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" si="42"/>
-        <v>26050</v>
+        <v>8880</v>
       </c>
       <c r="P37" s="5">
         <f t="shared" si="42"/>
-        <v>20498.5</v>
+        <v>3829</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="42"/>
-        <v>17547</v>
+        <v>1138</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="42"/>
-        <v>15195.5</v>
+        <v>-1193</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" si="42"/>
-        <v>13444</v>
+        <v>-3164</v>
       </c>
       <c r="T37" s="5">
         <f t="shared" si="42"/>
-        <v>12242.5</v>
+        <v>-4805</v>
       </c>
       <c r="U37" s="5">
         <f t="shared" si="42"/>
-        <v>11591</v>
+        <v>-6116</v>
       </c>
       <c r="V37" s="5">
         <f t="shared" si="42"/>
-        <v>11489.5</v>
+        <v>-7097</v>
       </c>
       <c r="W37" s="5">
         <f t="shared" si="42"/>
-        <v>11938</v>
+        <v>-7748</v>
       </c>
       <c r="X37" s="5">
         <f t="shared" si="42"/>
-        <v>12936.5</v>
+        <v>-8069</v>
       </c>
       <c r="Y37" s="5">
         <f t="shared" si="42"/>
-        <v>14435</v>
+        <v>-8090</v>
       </c>
       <c r="Z37" s="5">
         <f t="shared" si="42"/>
-        <v>16433.5</v>
+        <v>-7811</v>
       </c>
       <c r="AA37" s="5">
         <f t="shared" si="42"/>
-        <v>18932</v>
+        <v>-7232</v>
       </c>
       <c r="AB37" s="5">
         <f t="shared" si="42"/>
-        <v>19905.5</v>
+        <v>-8378</v>
       </c>
       <c r="AC37" s="5">
         <f t="shared" si="42"/>
-        <v>23329</v>
+        <v>-7224</v>
       </c>
       <c r="AD37" s="5">
         <f t="shared" si="42"/>
-        <v>27202.5</v>
+        <v>-5800</v>
       </c>
       <c r="AE37" s="5">
         <f t="shared" si="42"/>
-        <v>31526</v>
+        <v>-4106</v>
       </c>
       <c r="AF37" s="5">
         <f t="shared" si="42"/>
-        <v>36299.5</v>
+        <v>-2142</v>
       </c>
       <c r="AG37" s="5">
         <f t="shared" si="42"/>
-        <v>41523</v>
+        <v>92</v>
       </c>
       <c r="AH37" s="5">
         <f t="shared" si="42"/>
-        <v>47196.5</v>
+        <v>2596</v>
       </c>
       <c r="AI37" s="5">
         <f t="shared" si="42"/>
-        <v>53270</v>
+        <v>5340</v>
       </c>
       <c r="AJ37" s="5">
         <f t="shared" si="42"/>
-        <v>59743.5</v>
+        <v>8324</v>
       </c>
       <c r="AK37" s="5">
         <f t="shared" si="42"/>
-        <v>66617</v>
+        <v>11548</v>
       </c>
       <c r="AL37" s="5">
         <f t="shared" si="42"/>
-        <v>73890.5</v>
+        <v>15012</v>
       </c>
       <c r="AM37" s="15">
         <f t="shared" si="42"/>
-        <v>81564</v>
+        <v>18716</v>
       </c>
       <c r="AN37" s="5">
         <f t="shared" si="42"/>
-        <v>81564</v>
+        <v>18716</v>
       </c>
       <c r="AO37" s="5"/>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="AM38" s="8"/>
     </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="5">
+        <f>D8-D24-D34</f>
+        <v>-9515</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" ref="E39:AM39" si="43">E8-E24-E34</f>
+        <v>-285</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="43"/>
+        <v>355</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="43"/>
+        <v>765</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="43"/>
+        <v>1205</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="43"/>
+        <v>1705</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" si="43"/>
+        <v>2125</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="43"/>
+        <v>2545</v>
+      </c>
+      <c r="M39" s="5">
+        <f t="shared" si="43"/>
+        <v>2935</v>
+      </c>
+      <c r="N39" s="5">
+        <f t="shared" si="43"/>
+        <v>3325</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="43"/>
+        <v>3715</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="43"/>
+        <v>-5051</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="43"/>
+        <v>-2691</v>
+      </c>
+      <c r="R39" s="5">
+        <f t="shared" si="43"/>
+        <v>-2331</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="43"/>
+        <v>-1971</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" si="43"/>
+        <v>-1641</v>
+      </c>
+      <c r="U39" s="5">
+        <f t="shared" si="43"/>
+        <v>-1311</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" si="43"/>
+        <v>-981</v>
+      </c>
+      <c r="W39" s="5">
+        <f t="shared" si="43"/>
+        <v>-651</v>
+      </c>
+      <c r="X39" s="5">
+        <f t="shared" si="43"/>
+        <v>-321</v>
+      </c>
+      <c r="Y39" s="5">
+        <f t="shared" si="43"/>
+        <v>-21</v>
+      </c>
+      <c r="Z39" s="5">
+        <f t="shared" si="43"/>
+        <v>279</v>
+      </c>
+      <c r="AA39" s="5">
+        <f t="shared" si="43"/>
+        <v>579</v>
+      </c>
+      <c r="AB39" s="5">
+        <f t="shared" si="43"/>
+        <v>-1146</v>
+      </c>
+      <c r="AC39" s="5">
+        <f t="shared" si="43"/>
+        <v>1154</v>
+      </c>
+      <c r="AD39" s="5">
+        <f t="shared" si="43"/>
+        <v>1424</v>
+      </c>
+      <c r="AE39" s="5">
+        <f t="shared" si="43"/>
+        <v>1694</v>
+      </c>
+      <c r="AF39" s="5">
+        <f t="shared" si="43"/>
+        <v>1964</v>
+      </c>
+      <c r="AG39" s="5">
+        <f t="shared" si="43"/>
+        <v>2234</v>
+      </c>
+      <c r="AH39" s="5">
+        <f t="shared" si="43"/>
+        <v>2504</v>
+      </c>
+      <c r="AI39" s="5">
+        <f t="shared" si="43"/>
+        <v>2744</v>
+      </c>
+      <c r="AJ39" s="5">
+        <f t="shared" si="43"/>
+        <v>2984</v>
+      </c>
+      <c r="AK39" s="5">
+        <f t="shared" si="43"/>
+        <v>3224</v>
+      </c>
+      <c r="AL39" s="5">
+        <f t="shared" si="43"/>
+        <v>3464</v>
+      </c>
+      <c r="AM39" s="5">
+        <f t="shared" si="43"/>
+        <v>3704</v>
+      </c>
+    </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="5">
-        <f>C40+D37</f>
-        <v>-9275</v>
-      </c>
-      <c r="E40" s="5">
-        <f t="shared" ref="E40:AM40" si="43">D40+E37</f>
-        <v>-18575</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" si="43"/>
-        <v>-27200</v>
-      </c>
-      <c r="G40" s="5">
-        <f t="shared" si="43"/>
-        <v>-34650</v>
-      </c>
-      <c r="H40" s="5">
-        <f t="shared" si="43"/>
-        <v>-40475</v>
-      </c>
-      <c r="I40" s="5">
-        <f t="shared" si="43"/>
-        <v>-43775</v>
-      </c>
-      <c r="J40" s="5">
-        <f t="shared" si="43"/>
-        <v>-43850</v>
-      </c>
-      <c r="K40" s="5">
-        <f t="shared" si="43"/>
-        <v>-40000</v>
-      </c>
-      <c r="L40" s="5">
-        <f t="shared" si="43"/>
-        <v>-31575</v>
-      </c>
-      <c r="M40" s="5">
-        <f t="shared" si="43"/>
-        <v>-17925</v>
-      </c>
-      <c r="N40" s="5">
-        <f t="shared" si="43"/>
-        <v>1600</v>
-      </c>
-      <c r="O40" s="5">
-        <f t="shared" si="43"/>
-        <v>27650</v>
-      </c>
-      <c r="P40" s="5">
-        <f t="shared" si="43"/>
-        <v>48148.5</v>
-      </c>
-      <c r="Q40" s="5">
-        <f t="shared" si="43"/>
-        <v>65695.5</v>
-      </c>
-      <c r="R40" s="5">
-        <f t="shared" si="43"/>
-        <v>80891</v>
-      </c>
-      <c r="S40" s="5">
-        <f t="shared" si="43"/>
-        <v>94335</v>
-      </c>
-      <c r="T40" s="5">
-        <f t="shared" si="43"/>
-        <v>106577.5</v>
-      </c>
-      <c r="U40" s="5">
-        <f t="shared" si="43"/>
-        <v>118168.5</v>
-      </c>
-      <c r="V40" s="5">
-        <f t="shared" si="43"/>
-        <v>129658</v>
-      </c>
-      <c r="W40" s="5">
-        <f t="shared" si="43"/>
-        <v>141596</v>
-      </c>
-      <c r="X40" s="5">
-        <f t="shared" si="43"/>
-        <v>154532.5</v>
-      </c>
-      <c r="Y40" s="5">
-        <f t="shared" si="43"/>
-        <v>168967.5</v>
-      </c>
-      <c r="Z40" s="5">
-        <f t="shared" si="43"/>
-        <v>185401</v>
-      </c>
-      <c r="AA40" s="5">
-        <f t="shared" si="43"/>
-        <v>204333</v>
-      </c>
-      <c r="AB40" s="5">
-        <f t="shared" si="43"/>
-        <v>224238.5</v>
-      </c>
-      <c r="AC40" s="5">
-        <f t="shared" si="43"/>
-        <v>247567.5</v>
-      </c>
-      <c r="AD40" s="5">
-        <f t="shared" si="43"/>
-        <v>274770</v>
-      </c>
-      <c r="AE40" s="5">
-        <f t="shared" si="43"/>
-        <v>306296</v>
-      </c>
-      <c r="AF40" s="5">
-        <f t="shared" si="43"/>
-        <v>342595.5</v>
-      </c>
-      <c r="AG40" s="5">
-        <f t="shared" si="43"/>
-        <v>384118.5</v>
-      </c>
-      <c r="AH40" s="5">
-        <f t="shared" si="43"/>
-        <v>431315</v>
-      </c>
-      <c r="AI40" s="5">
-        <f t="shared" si="43"/>
-        <v>484585</v>
-      </c>
-      <c r="AJ40" s="5">
-        <f t="shared" si="43"/>
-        <v>544328.5</v>
-      </c>
-      <c r="AK40" s="5">
-        <f t="shared" si="43"/>
-        <v>610945.5</v>
-      </c>
-      <c r="AL40" s="5">
-        <f t="shared" si="43"/>
-        <v>684836</v>
-      </c>
-      <c r="AM40" s="5">
-        <f t="shared" si="43"/>
-        <v>766400</v>
-      </c>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="D41" s="5"/>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="5">
+        <f>D8</f>
+        <v>210</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" ref="K42:AM42" si="44">E8</f>
+        <v>440</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="44"/>
+        <v>730</v>
+      </c>
+      <c r="M42" s="5">
+        <f t="shared" si="44"/>
+        <v>1080</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="44"/>
+        <v>1490</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="44"/>
+        <v>1930</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="44"/>
+        <v>2430</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="44"/>
+        <v>2850</v>
+      </c>
+      <c r="R42" s="5">
+        <f t="shared" si="44"/>
+        <v>3270</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" si="44"/>
+        <v>3660</v>
+      </c>
+      <c r="T42" s="5">
+        <f t="shared" si="44"/>
+        <v>4050</v>
+      </c>
+      <c r="U42" s="5">
+        <f t="shared" si="44"/>
+        <v>4440</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="44"/>
+        <v>4800</v>
+      </c>
+      <c r="W42" s="5">
+        <f t="shared" si="44"/>
+        <v>5160</v>
+      </c>
+      <c r="X42" s="5">
+        <f t="shared" si="44"/>
+        <v>5520</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" si="44"/>
+        <v>5880</v>
+      </c>
+      <c r="Z42" s="5">
+        <f t="shared" si="44"/>
+        <v>6210</v>
+      </c>
+      <c r="AA42" s="5">
+        <f t="shared" si="44"/>
+        <v>6540</v>
+      </c>
+      <c r="AB42" s="5">
+        <f t="shared" si="44"/>
+        <v>6870</v>
+      </c>
+      <c r="AC42" s="5">
+        <f t="shared" si="44"/>
+        <v>7200</v>
+      </c>
+      <c r="AD42" s="5">
+        <f t="shared" si="44"/>
+        <v>7530</v>
+      </c>
+      <c r="AE42" s="5">
+        <f t="shared" si="44"/>
+        <v>7830</v>
+      </c>
+      <c r="AF42" s="5">
+        <f t="shared" si="44"/>
+        <v>8130</v>
+      </c>
+      <c r="AG42" s="5">
+        <f t="shared" si="44"/>
+        <v>8430</v>
+      </c>
+      <c r="AH42" s="5">
+        <f t="shared" si="44"/>
+        <v>8730</v>
+      </c>
+      <c r="AI42" s="5">
+        <f t="shared" si="44"/>
+        <v>9030</v>
+      </c>
+      <c r="AJ42" s="5">
+        <f t="shared" si="44"/>
+        <v>9300</v>
+      </c>
+      <c r="AK42" s="5">
+        <f t="shared" si="44"/>
+        <v>9570</v>
+      </c>
+      <c r="AL42" s="5">
+        <f t="shared" si="44"/>
+        <v>9840</v>
+      </c>
+      <c r="AM42" s="5">
+        <f t="shared" si="44"/>
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="5">
+        <f>D42-D24-D34</f>
+        <v>-9725</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" ref="E43:AM43" si="45">E42-E24-E34</f>
+        <v>-725</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="45"/>
+        <v>-725</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="45"/>
+        <v>-725</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="45"/>
+        <v>-725</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="45"/>
+        <v>-725</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="45"/>
+        <v>-515</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="45"/>
+        <v>-285</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" si="45"/>
+        <v>355</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="45"/>
+        <v>765</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="45"/>
+        <v>1205</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="45"/>
+        <v>-7421</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="45"/>
+        <v>-5001</v>
+      </c>
+      <c r="R43" s="5">
+        <f t="shared" si="45"/>
+        <v>-4581</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="45"/>
+        <v>-4191</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" si="45"/>
+        <v>-3801</v>
+      </c>
+      <c r="U43" s="5">
+        <f t="shared" si="45"/>
+        <v>-3411</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="45"/>
+        <v>-3051</v>
+      </c>
+      <c r="W43" s="5">
+        <f t="shared" si="45"/>
+        <v>-2691</v>
+      </c>
+      <c r="X43" s="5">
+        <f t="shared" si="45"/>
+        <v>-2331</v>
+      </c>
+      <c r="Y43" s="5">
+        <f t="shared" si="45"/>
+        <v>-1971</v>
+      </c>
+      <c r="Z43" s="5">
+        <f t="shared" si="45"/>
+        <v>-1641</v>
+      </c>
+      <c r="AA43" s="5">
+        <f t="shared" si="45"/>
+        <v>-1311</v>
+      </c>
+      <c r="AB43" s="5">
+        <f t="shared" si="45"/>
+        <v>-3006</v>
+      </c>
+      <c r="AC43" s="5">
+        <f t="shared" si="45"/>
+        <v>-676</v>
+      </c>
+      <c r="AD43" s="5">
+        <f t="shared" si="45"/>
+        <v>-346</v>
+      </c>
+      <c r="AE43" s="5">
+        <f t="shared" si="45"/>
+        <v>-46</v>
+      </c>
+      <c r="AF43" s="5">
+        <f t="shared" si="45"/>
+        <v>254</v>
+      </c>
+      <c r="AG43" s="5">
+        <f t="shared" si="45"/>
+        <v>554</v>
+      </c>
+      <c r="AH43" s="5">
+        <f t="shared" si="45"/>
+        <v>854</v>
+      </c>
+      <c r="AI43" s="5">
+        <f t="shared" si="45"/>
+        <v>1154</v>
+      </c>
+      <c r="AJ43" s="5">
+        <f t="shared" si="45"/>
+        <v>1424</v>
+      </c>
+      <c r="AK43" s="5">
+        <f t="shared" si="45"/>
+        <v>1694</v>
+      </c>
+      <c r="AL43" s="5">
+        <f t="shared" si="45"/>
+        <v>1964</v>
+      </c>
+      <c r="AM43" s="5">
+        <f t="shared" si="45"/>
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="D45" s="13">
+        <f>C45+D42</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" ref="E45:AM45" si="46">D45+E42</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="13">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="13">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="13">
+        <f t="shared" si="46"/>
+        <v>210</v>
+      </c>
+      <c r="K45" s="13">
+        <f t="shared" si="46"/>
+        <v>650</v>
+      </c>
+      <c r="L45" s="13">
+        <f t="shared" si="46"/>
+        <v>1380</v>
+      </c>
+      <c r="M45" s="13">
+        <f t="shared" si="46"/>
+        <v>2460</v>
+      </c>
+      <c r="N45" s="13">
+        <f t="shared" si="46"/>
+        <v>3950</v>
+      </c>
+      <c r="O45" s="13">
+        <f t="shared" si="46"/>
+        <v>5880</v>
+      </c>
+      <c r="P45" s="13">
+        <f t="shared" si="46"/>
+        <v>8310</v>
+      </c>
+      <c r="Q45" s="13">
+        <f t="shared" si="46"/>
+        <v>11160</v>
+      </c>
+      <c r="R45" s="13">
+        <f t="shared" si="46"/>
+        <v>14430</v>
+      </c>
+      <c r="S45" s="13">
+        <f t="shared" si="46"/>
+        <v>18090</v>
+      </c>
+      <c r="T45" s="13">
+        <f t="shared" si="46"/>
+        <v>22140</v>
+      </c>
+      <c r="U45" s="13">
+        <f t="shared" si="46"/>
+        <v>26580</v>
+      </c>
+      <c r="V45" s="13">
+        <f t="shared" si="46"/>
+        <v>31380</v>
+      </c>
+      <c r="W45" s="13">
+        <f t="shared" si="46"/>
+        <v>36540</v>
+      </c>
+      <c r="X45" s="13">
+        <f t="shared" si="46"/>
+        <v>42060</v>
+      </c>
+      <c r="Y45" s="13">
+        <f t="shared" si="46"/>
+        <v>47940</v>
+      </c>
+      <c r="Z45" s="13">
+        <f t="shared" si="46"/>
+        <v>54150</v>
+      </c>
+      <c r="AA45" s="13">
+        <f t="shared" si="46"/>
+        <v>60690</v>
+      </c>
+      <c r="AB45" s="13">
+        <f t="shared" si="46"/>
+        <v>67560</v>
+      </c>
+      <c r="AC45" s="13">
+        <f t="shared" si="46"/>
+        <v>74760</v>
+      </c>
+      <c r="AD45" s="13">
+        <f t="shared" si="46"/>
+        <v>82290</v>
+      </c>
+      <c r="AE45" s="13">
+        <f t="shared" si="46"/>
+        <v>90120</v>
+      </c>
+      <c r="AF45" s="13">
+        <f t="shared" si="46"/>
+        <v>98250</v>
+      </c>
+      <c r="AG45" s="13">
+        <f t="shared" si="46"/>
+        <v>106680</v>
+      </c>
+      <c r="AH45" s="13">
+        <f t="shared" si="46"/>
+        <v>115410</v>
+      </c>
+      <c r="AI45" s="13">
+        <f t="shared" si="46"/>
+        <v>124440</v>
+      </c>
+      <c r="AJ45" s="13">
+        <f t="shared" si="46"/>
+        <v>133740</v>
+      </c>
+      <c r="AK45" s="13">
+        <f t="shared" si="46"/>
+        <v>143310</v>
+      </c>
+      <c r="AL45" s="13">
+        <f t="shared" si="46"/>
+        <v>153150</v>
+      </c>
+      <c r="AM45" s="13">
+        <f t="shared" si="46"/>
+        <v>163260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="5">
+        <f>D45-D26-D35</f>
+        <v>-9725</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" ref="E46:AM46" si="47">E45-E26-E35</f>
+        <v>-10450</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="47"/>
+        <v>-11175</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="47"/>
+        <v>-11900</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="47"/>
+        <v>-12625</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="47"/>
+        <v>-13350</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="47"/>
+        <v>-13865</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="47"/>
+        <v>-14150</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="47"/>
+        <v>-14145</v>
+      </c>
+      <c r="M46" s="5">
+        <f t="shared" si="47"/>
+        <v>-13790</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" si="47"/>
+        <v>-13025</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="47"/>
+        <v>-11820</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="47"/>
+        <v>-19241</v>
+      </c>
+      <c r="Q46" s="5">
+        <f t="shared" si="47"/>
+        <v>-24242</v>
+      </c>
+      <c r="R46" s="5">
+        <f t="shared" si="47"/>
+        <v>-28823</v>
+      </c>
+      <c r="S46" s="5">
+        <f t="shared" si="47"/>
+        <v>-33014</v>
+      </c>
+      <c r="T46" s="5">
+        <f t="shared" si="47"/>
+        <v>-36815</v>
+      </c>
+      <c r="U46" s="5">
+        <f t="shared" si="47"/>
+        <v>-40226</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="47"/>
+        <v>-43277</v>
+      </c>
+      <c r="W46" s="5">
+        <f t="shared" si="47"/>
+        <v>-45968</v>
+      </c>
+      <c r="X46" s="5">
+        <f t="shared" si="47"/>
+        <v>-48299</v>
+      </c>
+      <c r="Y46" s="5">
+        <f t="shared" si="47"/>
+        <v>-50270</v>
+      </c>
+      <c r="Z46" s="5">
+        <f t="shared" si="47"/>
+        <v>-51911</v>
+      </c>
+      <c r="AA46" s="5">
+        <f t="shared" si="47"/>
+        <v>-53222</v>
+      </c>
+      <c r="AB46" s="5">
+        <f t="shared" si="47"/>
+        <v>-56228</v>
+      </c>
+      <c r="AC46" s="5">
+        <f t="shared" si="47"/>
+        <v>-56904</v>
+      </c>
+      <c r="AD46" s="5">
+        <f t="shared" si="47"/>
+        <v>-57250</v>
+      </c>
+      <c r="AE46" s="5">
+        <f t="shared" si="47"/>
+        <v>-57296</v>
+      </c>
+      <c r="AF46" s="5">
+        <f t="shared" si="47"/>
+        <v>-57042</v>
+      </c>
+      <c r="AG46" s="5">
+        <f t="shared" si="47"/>
+        <v>-56488</v>
+      </c>
+      <c r="AH46" s="5">
+        <f t="shared" si="47"/>
+        <v>-55634</v>
+      </c>
+      <c r="AI46" s="5">
+        <f t="shared" si="47"/>
+        <v>-54480</v>
+      </c>
+      <c r="AJ46" s="5">
+        <f t="shared" si="47"/>
+        <v>-53056</v>
+      </c>
+      <c r="AK46" s="5">
+        <f t="shared" si="47"/>
+        <v>-51362</v>
+      </c>
+      <c r="AL46" s="5">
+        <f t="shared" si="47"/>
+        <v>-49398</v>
+      </c>
+      <c r="AM46" s="5">
+        <f t="shared" si="47"/>
+        <v>-47164</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D37:AO37">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:AM39">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:AM43">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:AM46">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8372,8 +10138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C8270A-33D7-4CBC-9323-1B991FD1D508}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8395,7 +10161,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="13">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8414,7 +10180,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="13">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -8429,7 +10195,7 @@
       </c>
       <c r="B8" s="5">
         <f>Tabelle1!AN37</f>
-        <v>81564</v>
+        <v>18716</v>
       </c>
     </row>
   </sheetData>
@@ -8450,8 +10216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1D9DEE-1B26-4B26-A83E-C708A7ADE389}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Vertrieb.xlsx
+++ b/Vertrieb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" activeTab="2" xr2:uid="{1CFAF433-DB7A-44B0-AAB8-549F054C11FA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17253" windowHeight="5624" activeTab="2" xr2:uid="{1CFAF433-DB7A-44B0-AAB8-549F054C11FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Vertrieb</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Bilanz (ZZ6)</t>
+  </si>
+  <si>
+    <t>Gesamtkosten</t>
   </si>
 </sst>
 </file>
@@ -3036,7 +3039,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:yVal>
             <c:numRef>
@@ -3158,12 +3161,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-36AA-42E8-8D6F-1CA06F932B13}"/>
+              <c16:uniqueId val="{00000014-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="5"/>
           <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3294,12 +3297,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-36AA-42E8-8D6F-1CA06F932B13}"/>
+              <c16:uniqueId val="{00000015-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="6"/>
           <c:order val="2"/>
           <c:yVal>
             <c:numRef>
@@ -3421,13 +3424,1065 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-36AA-42E8-8D6F-1CA06F932B13}"/>
+              <c16:uniqueId val="{00000016-ED32-4759-8DFD-DF4A4BEBA58D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$37:$AM$37</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7748</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8090</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7232</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8324</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-ED32-4759-8DFD-DF4A4BEBA58D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$37:$AM$37</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7748</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8090</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7232</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8324</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-ED32-4759-8DFD-DF4A4BEBA58D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$37:$AM$37</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7748</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8090</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7232</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8324</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-ED32-4759-8DFD-DF4A4BEBA58D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="6"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$37:$AM$37</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7748</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8090</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7232</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8324</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-ED32-4759-8DFD-DF4A4BEBA58D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$37:$AM$37</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7748</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8090</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7232</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8324</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-ED32-4759-8DFD-DF4A4BEBA58D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="8"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$37:$AM$37</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7748</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8090</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7232</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8324</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-ED32-4759-8DFD-DF4A4BEBA58D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$37:$AM$37</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7748</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8090</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7232</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8324</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-ED32-4759-8DFD-DF4A4BEBA58D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="10"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$37:$AM$37</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-9515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7748</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8090</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7232</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8324</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="3"/>
+          <c:order val="11"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3572,7 +4627,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-36AA-42E8-8D6F-1CA06F932B13}"/>
+              <c16:uniqueId val="{00000013-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4672,6 +5727,513 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C5E4-4B71-A531-74593E53F5D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468337599"/>
+        <c:axId val="478418383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468337599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478418383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="478418383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468337599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Kosten - Einnahmen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$8:$AM$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3660</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5160</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5880</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6540</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6870</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7530</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7830</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8130</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8430</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8730</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9030</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9570</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9840</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10110</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10380</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10620</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10860</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8BF-41C0-AE8D-7108FD833946}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kosten</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$36:$AM$36</c:f>
+              <c:numCache>
+                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>9725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9851</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7851</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7851</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7851</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7851</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7851</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7851</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7851</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7851</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7851</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7851</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7876</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7876</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7876</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7876</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7876</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7876</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7876</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7876</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7876</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-D8BF-41C0-AE8D-7108FD833946}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5986,16 +7548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>392358</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113294</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>24010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6068,13 +7630,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
+      <xdr:colOff>416081</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:colOff>103661</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
@@ -6212,6 +7774,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>440430</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE1D665-F16E-441C-8267-F885AB7BBEF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6519,23 +8119,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DFB736-33AD-48F1-9A2F-645E6D17BC5B}">
   <dimension ref="A1:AO46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:J3"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="39" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="39" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6649,14 +8249,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8"/>
       <c r="AM2" s="8"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6773,7 +8373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -6926,7 +8526,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -7076,7 +8676,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -7228,7 +8828,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -7381,7 +8981,7 @@
         <v>10980</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
@@ -7534,13 +9134,13 @@
         <v>11580</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>49</v>
       </c>
       <c r="AM9" s="8"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="D10" s="5">
         <f>C10+D8</f>
         <v>210</v>
@@ -7690,10 +9290,10 @@
         <v>229140</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM11" s="8"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -7705,7 +9305,7 @@
       </c>
       <c r="AM12" s="8"/>
     </row>
-    <row r="13" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -7714,7 +9314,7 @@
       </c>
       <c r="AM13" s="8"/>
     </row>
-    <row r="14" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>900</v>
       </c>
@@ -7866,13 +9466,13 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM15" s="8"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM16" s="8"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -8027,7 +9627,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>53</v>
       </c>
@@ -8179,7 +9779,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>54</v>
       </c>
@@ -8331,7 +9931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -8347,7 +9947,7 @@
       </c>
       <c r="AM20" s="8"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8372,7 +9972,7 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="5"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>55</v>
       </c>
@@ -8385,10 +9985,10 @@
       </c>
       <c r="AM22" s="8"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM23" s="8"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="D24" s="5">
         <f>SUM(D17:D22)</f>
         <v>9725</v>
@@ -8534,7 +10134,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -8573,7 +10173,7 @@
       <c r="AM25" s="16"/>
       <c r="AN25" s="14"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="D26" s="5">
         <f>C26+D24</f>
         <v>9725</v>
@@ -8723,10 +10323,10 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM27" s="8"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -8881,10 +10481,10 @@
         <v>750</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AM29" s="8"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -8897,7 +10497,7 @@
       </c>
       <c r="AM30" s="8"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>62</v>
       </c>
@@ -8907,7 +10507,7 @@
       </c>
       <c r="AM31" s="8"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>63</v>
       </c>
@@ -8917,7 +10517,7 @@
       </c>
       <c r="AM32" s="8"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>64</v>
       </c>
@@ -8927,7 +10527,7 @@
       </c>
       <c r="AM33" s="8"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>59</v>
       </c>
@@ -9045,7 +10645,7 @@
       </c>
       <c r="AN34" s="13"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D35" s="13">
         <f>C35+D34</f>
         <v>0</v>
@@ -9195,10 +10795,156 @@
         <v>170424</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="AM36" s="8"/>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="5">
+        <f>D24+D34</f>
+        <v>9725</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" ref="E36:AM36" si="42">E24+E34</f>
+        <v>725</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="42"/>
+        <v>725</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="42"/>
+        <v>725</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="42"/>
+        <v>725</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="42"/>
+        <v>725</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="42"/>
+        <v>725</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="42"/>
+        <v>725</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="42"/>
+        <v>725</v>
+      </c>
+      <c r="M36" s="5">
+        <f t="shared" si="42"/>
+        <v>725</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="42"/>
+        <v>725</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="42"/>
+        <v>725</v>
+      </c>
+      <c r="P36" s="5">
+        <f t="shared" si="42"/>
+        <v>9851</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="42"/>
+        <v>7851</v>
+      </c>
+      <c r="R36" s="5">
+        <f t="shared" si="42"/>
+        <v>7851</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" si="42"/>
+        <v>7851</v>
+      </c>
+      <c r="T36" s="5">
+        <f t="shared" si="42"/>
+        <v>7851</v>
+      </c>
+      <c r="U36" s="5">
+        <f t="shared" si="42"/>
+        <v>7851</v>
+      </c>
+      <c r="V36" s="5">
+        <f t="shared" si="42"/>
+        <v>7851</v>
+      </c>
+      <c r="W36" s="5">
+        <f t="shared" si="42"/>
+        <v>7851</v>
+      </c>
+      <c r="X36" s="5">
+        <f t="shared" si="42"/>
+        <v>7851</v>
+      </c>
+      <c r="Y36" s="5">
+        <f t="shared" si="42"/>
+        <v>7851</v>
+      </c>
+      <c r="Z36" s="5">
+        <f t="shared" si="42"/>
+        <v>7851</v>
+      </c>
+      <c r="AA36" s="5">
+        <f t="shared" si="42"/>
+        <v>7851</v>
+      </c>
+      <c r="AB36" s="5">
+        <f t="shared" si="42"/>
+        <v>9876</v>
+      </c>
+      <c r="AC36" s="5">
+        <f t="shared" si="42"/>
+        <v>7876</v>
+      </c>
+      <c r="AD36" s="5">
+        <f t="shared" si="42"/>
+        <v>7876</v>
+      </c>
+      <c r="AE36" s="5">
+        <f t="shared" si="42"/>
+        <v>7876</v>
+      </c>
+      <c r="AF36" s="5">
+        <f t="shared" si="42"/>
+        <v>7876</v>
+      </c>
+      <c r="AG36" s="5">
+        <f t="shared" si="42"/>
+        <v>7876</v>
+      </c>
+      <c r="AH36" s="5">
+        <f t="shared" si="42"/>
+        <v>7876</v>
+      </c>
+      <c r="AI36" s="5">
+        <f t="shared" si="42"/>
+        <v>7876</v>
+      </c>
+      <c r="AJ36" s="5">
+        <f t="shared" si="42"/>
+        <v>7876</v>
+      </c>
+      <c r="AK36" s="5">
+        <f t="shared" si="42"/>
+        <v>7876</v>
+      </c>
+      <c r="AL36" s="5">
+        <f t="shared" si="42"/>
+        <v>7876</v>
+      </c>
+      <c r="AM36" s="5">
+        <f t="shared" si="42"/>
+        <v>7876</v>
+      </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -9207,155 +10953,155 @@
         <v>-9515</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" ref="D37:AN37" si="42">E10-E26-E35</f>
+        <f t="shared" ref="E37:AN37" si="43">E10-E26-E35</f>
         <v>-9800</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-9795</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-9440</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-8675</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-7470</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-5765</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-3640</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-1095</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1840</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>5165</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>8880</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3829</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1138</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-1193</v>
       </c>
       <c r="S37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-3164</v>
       </c>
       <c r="T37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-4805</v>
       </c>
       <c r="U37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-6116</v>
       </c>
       <c r="V37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-7097</v>
       </c>
       <c r="W37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-7748</v>
       </c>
       <c r="X37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-8069</v>
       </c>
       <c r="Y37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-8090</v>
       </c>
       <c r="Z37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-7811</v>
       </c>
       <c r="AA37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-7232</v>
       </c>
       <c r="AB37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-8378</v>
       </c>
       <c r="AC37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-7224</v>
       </c>
       <c r="AD37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-5800</v>
       </c>
       <c r="AE37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-4106</v>
       </c>
       <c r="AF37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-2142</v>
       </c>
       <c r="AG37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>92</v>
       </c>
       <c r="AH37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2596</v>
       </c>
       <c r="AI37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>5340</v>
       </c>
       <c r="AJ37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>8324</v>
       </c>
       <c r="AK37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>11548</v>
       </c>
       <c r="AL37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>15012</v>
       </c>
       <c r="AM37" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>18716</v>
       </c>
       <c r="AN37" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>18716</v>
       </c>
       <c r="AO37" s="5"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AM38" s="8"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>67</v>
       </c>
@@ -9364,150 +11110,150 @@
         <v>-9515</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" ref="E39:AM39" si="43">E8-E24-E34</f>
+        <f>E8-E24-E34</f>
         <v>-285</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="E39:AM39" si="44">F8-F24-F34</f>
         <v>5</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>355</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>765</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1205</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1705</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2125</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2545</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2935</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3325</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3715</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-5051</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-2691</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-2331</v>
       </c>
       <c r="S39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-1971</v>
       </c>
       <c r="T39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-1641</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-1311</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-981</v>
       </c>
       <c r="W39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-651</v>
       </c>
       <c r="X39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-321</v>
       </c>
       <c r="Y39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-21</v>
       </c>
       <c r="Z39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>279</v>
       </c>
       <c r="AA39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>579</v>
       </c>
       <c r="AB39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-1146</v>
       </c>
       <c r="AC39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1154</v>
       </c>
       <c r="AD39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1424</v>
       </c>
       <c r="AE39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1694</v>
       </c>
       <c r="AF39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1964</v>
       </c>
       <c r="AG39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2234</v>
       </c>
       <c r="AH39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2504</v>
       </c>
       <c r="AI39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2744</v>
       </c>
       <c r="AJ39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2984</v>
       </c>
       <c r="AK39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3224</v>
       </c>
       <c r="AL39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3464</v>
       </c>
       <c r="AM39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3704</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>1</v>
       </c>
@@ -9527,7 +11273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -9536,123 +11282,123 @@
         <v>210</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" ref="K42:AM42" si="44">E8</f>
+        <f t="shared" ref="K42:AM42" si="45">E8</f>
         <v>440</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>730</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1080</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1490</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1930</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2430</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2850</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3270</v>
       </c>
       <c r="S42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3660</v>
       </c>
       <c r="T42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4050</v>
       </c>
       <c r="U42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4440</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4800</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>5160</v>
       </c>
       <c r="X42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>5520</v>
       </c>
       <c r="Y42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>5880</v>
       </c>
       <c r="Z42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>6210</v>
       </c>
       <c r="AA42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>6540</v>
       </c>
       <c r="AB42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>6870</v>
       </c>
       <c r="AC42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>7200</v>
       </c>
       <c r="AD42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>7530</v>
       </c>
       <c r="AE42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>7830</v>
       </c>
       <c r="AF42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8130</v>
       </c>
       <c r="AG42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8430</v>
       </c>
       <c r="AH42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8730</v>
       </c>
       <c r="AI42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9030</v>
       </c>
       <c r="AJ42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9300</v>
       </c>
       <c r="AK42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9570</v>
       </c>
       <c r="AL42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9840</v>
       </c>
       <c r="AM42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>10110</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>69</v>
       </c>
@@ -9661,293 +11407,293 @@
         <v>-9725</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" ref="E43:AM43" si="45">E42-E24-E34</f>
+        <f t="shared" ref="E43:AM43" si="46">E42-E24-E34</f>
         <v>-725</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-725</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-725</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-725</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-725</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-515</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-285</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="M43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>355</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>765</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1205</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-7421</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-5001</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-4581</v>
       </c>
       <c r="S43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-4191</v>
       </c>
       <c r="T43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-3801</v>
       </c>
       <c r="U43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-3411</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-3051</v>
       </c>
       <c r="W43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-2691</v>
       </c>
       <c r="X43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-2331</v>
       </c>
       <c r="Y43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-1971</v>
       </c>
       <c r="Z43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-1641</v>
       </c>
       <c r="AA43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-1311</v>
       </c>
       <c r="AB43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-3006</v>
       </c>
       <c r="AC43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-676</v>
       </c>
       <c r="AD43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-346</v>
       </c>
       <c r="AE43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-46</v>
       </c>
       <c r="AF43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>254</v>
       </c>
       <c r="AG43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>554</v>
       </c>
       <c r="AH43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>854</v>
       </c>
       <c r="AI43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1154</v>
       </c>
       <c r="AJ43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1424</v>
       </c>
       <c r="AK43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1694</v>
       </c>
       <c r="AL43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1964</v>
       </c>
       <c r="AM43" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2234</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D45" s="13">
         <f>C45+D42</f>
         <v>0</v>
       </c>
       <c r="E45" s="13">
-        <f t="shared" ref="E45:AM45" si="46">D45+E42</f>
+        <f t="shared" ref="E45:AM45" si="47">D45+E42</f>
         <v>0</v>
       </c>
       <c r="F45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>210</v>
       </c>
       <c r="K45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>650</v>
       </c>
       <c r="L45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1380</v>
       </c>
       <c r="M45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2460</v>
       </c>
       <c r="N45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3950</v>
       </c>
       <c r="O45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5880</v>
       </c>
       <c r="P45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>8310</v>
       </c>
       <c r="Q45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>11160</v>
       </c>
       <c r="R45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>14430</v>
       </c>
       <c r="S45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>18090</v>
       </c>
       <c r="T45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>22140</v>
       </c>
       <c r="U45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>26580</v>
       </c>
       <c r="V45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>31380</v>
       </c>
       <c r="W45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>36540</v>
       </c>
       <c r="X45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>42060</v>
       </c>
       <c r="Y45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>47940</v>
       </c>
       <c r="Z45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>54150</v>
       </c>
       <c r="AA45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>60690</v>
       </c>
       <c r="AB45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>67560</v>
       </c>
       <c r="AC45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>74760</v>
       </c>
       <c r="AD45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>82290</v>
       </c>
       <c r="AE45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>90120</v>
       </c>
       <c r="AF45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>98250</v>
       </c>
       <c r="AG45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>106680</v>
       </c>
       <c r="AH45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>115410</v>
       </c>
       <c r="AI45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>124440</v>
       </c>
       <c r="AJ45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>133740</v>
       </c>
       <c r="AK45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>143310</v>
       </c>
       <c r="AL45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>153150</v>
       </c>
       <c r="AM45" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>163260</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>70</v>
       </c>
@@ -9956,143 +11702,143 @@
         <v>-9725</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" ref="E46:AM46" si="47">E45-E26-E35</f>
+        <f t="shared" ref="E46:AM46" si="48">E45-E26-E35</f>
         <v>-10450</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-11175</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-11900</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-12625</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-13350</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-13865</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-14150</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-14145</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-13790</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-13025</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-11820</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-19241</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-24242</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-28823</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-33014</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-36815</v>
       </c>
       <c r="U46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-40226</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-43277</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-45968</v>
       </c>
       <c r="X46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-48299</v>
       </c>
       <c r="Y46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-50270</v>
       </c>
       <c r="Z46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-51911</v>
       </c>
       <c r="AA46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-53222</v>
       </c>
       <c r="AB46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-56228</v>
       </c>
       <c r="AC46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-56904</v>
       </c>
       <c r="AD46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-57250</v>
       </c>
       <c r="AE46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-57296</v>
       </c>
       <c r="AF46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-57042</v>
       </c>
       <c r="AG46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-56488</v>
       </c>
       <c r="AH46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-55634</v>
       </c>
       <c r="AI46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-54480</v>
       </c>
       <c r="AJ46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-53056</v>
       </c>
       <c r="AK46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-51362</v>
       </c>
       <c r="AL46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-49398</v>
       </c>
       <c r="AM46" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-47164</v>
       </c>
     </row>
@@ -10142,13 +11888,13 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -10156,7 +11902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -10164,10 +11910,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -10175,7 +11921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -10183,13 +11929,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -10216,11 +11962,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1D9DEE-1B26-4B26-A83E-C708A7ADE389}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Vertrieb.xlsx
+++ b/Vertrieb.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\MxCloud\Studium\2017 WS\SKP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d066024/Master Informatik/SKP/tollefirma/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17253" windowHeight="5624" activeTab="2" xr2:uid="{1CFAF433-DB7A-44B0-AAB8-549F054C11FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Eingabemaske" sheetId="3" r:id="rId2"/>
     <sheet name="Diagramme" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>Vertrieb</t>
   </si>
@@ -244,11 +250,14 @@
   <si>
     <t>Gesamtkosten</t>
   </si>
+  <si>
+    <t>Investor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -297,7 +306,7 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -313,7 +322,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -322,7 +331,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="double">
         <color auto="1"/>
@@ -335,18 +344,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -378,9 +387,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -497,7 +506,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -561,7 +570,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -605,118 +614,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C499-4C8B-AB5E-59ED77CE278C}"/>
             </c:ext>
@@ -730,11 +739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468337599"/>
-        <c:axId val="478418383"/>
+        <c:axId val="-119737712"/>
+        <c:axId val="-57530160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468337599"/>
+        <c:axId val="-119737712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,15 +796,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478418383"/>
+        <c:crossAx val="-57530160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478418383"/>
+        <c:axId val="-57530160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,10 +858,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468337599"/>
+        <c:crossAx val="-119737712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -890,19 +899,19 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -981,118 +990,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-285</c:v>
+                  <c:v>-285.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>355</c:v>
+                  <c:v>355.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>765</c:v>
+                  <c:v>765.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1205</c:v>
+                  <c:v>1205.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1705</c:v>
+                  <c:v>1705.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2125</c:v>
+                  <c:v>2125.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2545</c:v>
+                  <c:v>2545.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2935</c:v>
+                  <c:v>2935.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3325</c:v>
+                  <c:v>3325.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3715</c:v>
+                  <c:v>3715.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5051</c:v>
+                  <c:v>-5051.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2691</c:v>
+                  <c:v>-2691.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2331</c:v>
+                  <c:v>-2331.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1971</c:v>
+                  <c:v>-1971.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1641</c:v>
+                  <c:v>-1641.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1311</c:v>
+                  <c:v>-1311.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-981</c:v>
+                  <c:v>-981.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-651</c:v>
+                  <c:v>-651.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-321</c:v>
+                  <c:v>-321.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-21</c:v>
+                  <c:v>-21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>279</c:v>
+                  <c:v>279.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>579</c:v>
+                  <c:v>579.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1146</c:v>
+                  <c:v>-1146.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1154</c:v>
+                  <c:v>1154.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1424</c:v>
+                  <c:v>1424.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1694</c:v>
+                  <c:v>1694.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1964</c:v>
+                  <c:v>1964.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2234</c:v>
+                  <c:v>2234.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2504</c:v>
+                  <c:v>2504.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2744</c:v>
+                  <c:v>2744.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2984</c:v>
+                  <c:v>2984.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3224</c:v>
+                  <c:v>3224.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3464</c:v>
+                  <c:v>3464.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3704</c:v>
+                  <c:v>3704.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DE72-4EC2-A3E4-13026E406A6D}"/>
             </c:ext>
@@ -1106,11 +1115,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468337599"/>
-        <c:axId val="478418383"/>
+        <c:axId val="-57240528"/>
+        <c:axId val="-147482928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468337599"/>
+        <c:axId val="-57240528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,15 +1172,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478418383"/>
+        <c:crossAx val="-147482928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478418383"/>
+        <c:axId val="-147482928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,10 +1234,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468337599"/>
+        <c:crossAx val="-57240528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1244,19 +1253,19 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1295,6 +1304,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1320,7 +1330,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1603,118 +1613,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A3B-4E2F-AFC4-615A2352E879}"/>
             </c:ext>
@@ -1993,118 +2003,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>138</c:v>
+                  <c:v>138.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>153</c:v>
+                  <c:v>153.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>168</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>183</c:v>
+                  <c:v>183.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>198</c:v>
+                  <c:v>198.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>213</c:v>
+                  <c:v>213.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>228</c:v>
+                  <c:v>228.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>243</c:v>
+                  <c:v>243.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>258</c:v>
+                  <c:v>258.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>273</c:v>
+                  <c:v>273.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>288</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>303</c:v>
+                  <c:v>303.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>318</c:v>
+                  <c:v>318.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>333</c:v>
+                  <c:v>333.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>348</c:v>
+                  <c:v>348.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>363</c:v>
+                  <c:v>363.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>378</c:v>
+                  <c:v>378.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>393</c:v>
+                  <c:v>393.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>408</c:v>
+                  <c:v>408.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>423</c:v>
+                  <c:v>423.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>438</c:v>
+                  <c:v>438.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>453</c:v>
+                  <c:v>453.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>468</c:v>
+                  <c:v>468.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>483</c:v>
+                  <c:v>483.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>498</c:v>
+                  <c:v>498.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A3B-4E2F-AFC4-615A2352E879}"/>
             </c:ext>
@@ -2386,118 +2396,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102</c:v>
+                  <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>140</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>152</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>164</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>176</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>187</c:v>
+                  <c:v>187.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>198</c:v>
+                  <c:v>198.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>209</c:v>
+                  <c:v>209.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>220</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>231</c:v>
+                  <c:v>231.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>241</c:v>
+                  <c:v>241.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>251</c:v>
+                  <c:v>251.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>261</c:v>
+                  <c:v>261.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>271</c:v>
+                  <c:v>271.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>281</c:v>
+                  <c:v>281.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>290</c:v>
+                  <c:v>290.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>299</c:v>
+                  <c:v>299.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>308</c:v>
+                  <c:v>308.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>317</c:v>
+                  <c:v>317.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>326</c:v>
+                  <c:v>326.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>334</c:v>
+                  <c:v>334.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>342</c:v>
+                  <c:v>342.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>350</c:v>
+                  <c:v>350.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>358</c:v>
+                  <c:v>358.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>366</c:v>
+                  <c:v>366.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8A3B-4E2F-AFC4-615A2352E879}"/>
             </c:ext>
@@ -2656,118 +2666,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>900</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8A3B-4E2F-AFC4-615A2352E879}"/>
             </c:ext>
@@ -2781,11 +2791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="477803759"/>
-        <c:axId val="421904607"/>
+        <c:axId val="-119890304"/>
+        <c:axId val="-119887744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="477803759"/>
+        <c:axId val="-119890304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2838,15 +2848,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421904607"/>
+        <c:crossAx val="-119887744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421904607"/>
+        <c:axId val="-119887744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,10 +2910,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477803759"/>
+        <c:crossAx val="-119890304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2917,6 +2927,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2942,7 +2953,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2972,19 +2983,19 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -3023,6 +3034,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3048,118 +3060,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000014-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
@@ -3184,118 +3196,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000015-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
@@ -3311,118 +3323,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000016-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
@@ -3447,118 +3459,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000017-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
@@ -3574,118 +3586,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000018-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
@@ -3710,118 +3722,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
@@ -3837,118 +3849,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001A-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
@@ -3973,118 +3985,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001B-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
@@ -4100,118 +4112,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
@@ -4236,118 +4248,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
@@ -4363,118 +4375,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
@@ -4514,118 +4526,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9800</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9795</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9440</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8675</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7470</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5765</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3640</c:v>
+                  <c:v>6360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1095</c:v>
+                  <c:v>8905.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840</c:v>
+                  <c:v>11840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5165</c:v>
+                  <c:v>15165.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8880</c:v>
+                  <c:v>18880.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3829</c:v>
+                  <c:v>13829.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1138</c:v>
+                  <c:v>11138.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1193</c:v>
+                  <c:v>8807.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3164</c:v>
+                  <c:v>6836.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4805</c:v>
+                  <c:v>5195.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6116</c:v>
+                  <c:v>3884.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7097</c:v>
+                  <c:v>2903.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7748</c:v>
+                  <c:v>2252.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8069</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8090</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7811</c:v>
+                  <c:v>2189.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7232</c:v>
+                  <c:v>2768.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8378</c:v>
+                  <c:v>1622.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7224</c:v>
+                  <c:v>2776.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5800</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4106</c:v>
+                  <c:v>5894.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2142</c:v>
+                  <c:v>7858.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>10092.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2596</c:v>
+                  <c:v>12596.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5340</c:v>
+                  <c:v>15340.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8324</c:v>
+                  <c:v>18324.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11548</c:v>
+                  <c:v>21548.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15012</c:v>
+                  <c:v>25012.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18716</c:v>
+                  <c:v>28716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-ED32-4759-8DFD-DF4A4BEBA58D}"/>
             </c:ext>
@@ -4639,11 +4651,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468337599"/>
-        <c:axId val="478418383"/>
+        <c:axId val="-119729104"/>
+        <c:axId val="-119838144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468337599"/>
+        <c:axId val="-119729104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4696,15 +4708,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478418383"/>
+        <c:crossAx val="-119838144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478418383"/>
+        <c:axId val="-119838144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4758,10 +4770,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468337599"/>
+        <c:crossAx val="-119729104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4777,19 +4789,19 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -4828,6 +4840,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4868,118 +4881,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9515</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-285</c:v>
+                  <c:v>-285.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>355</c:v>
+                  <c:v>355.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>765</c:v>
+                  <c:v>765.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1205</c:v>
+                  <c:v>1205.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1705</c:v>
+                  <c:v>1705.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2125</c:v>
+                  <c:v>2125.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2545</c:v>
+                  <c:v>2545.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2935</c:v>
+                  <c:v>2935.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3325</c:v>
+                  <c:v>3325.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3715</c:v>
+                  <c:v>3715.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5051</c:v>
+                  <c:v>-5051.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2691</c:v>
+                  <c:v>-2691.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2331</c:v>
+                  <c:v>-2331.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1971</c:v>
+                  <c:v>-1971.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1641</c:v>
+                  <c:v>-1641.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1311</c:v>
+                  <c:v>-1311.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-981</c:v>
+                  <c:v>-981.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-651</c:v>
+                  <c:v>-651.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-321</c:v>
+                  <c:v>-321.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-21</c:v>
+                  <c:v>-21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>279</c:v>
+                  <c:v>279.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>579</c:v>
+                  <c:v>579.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1146</c:v>
+                  <c:v>-1146.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1154</c:v>
+                  <c:v>1154.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1424</c:v>
+                  <c:v>1424.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1694</c:v>
+                  <c:v>1694.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1964</c:v>
+                  <c:v>1964.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2234</c:v>
+                  <c:v>2234.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2504</c:v>
+                  <c:v>2504.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2744</c:v>
+                  <c:v>2744.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2984</c:v>
+                  <c:v>2984.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3224</c:v>
+                  <c:v>3224.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3464</c:v>
+                  <c:v>3464.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3704</c:v>
+                  <c:v>3704.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D1CC-4F97-8D33-9C1EF3C1FBCB}"/>
             </c:ext>
@@ -4993,11 +5006,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468337599"/>
-        <c:axId val="478418383"/>
+        <c:axId val="-147139984"/>
+        <c:axId val="-147757232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468337599"/>
+        <c:axId val="-147139984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5050,15 +5063,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478418383"/>
+        <c:crossAx val="-147757232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478418383"/>
+        <c:axId val="-147757232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5112,10 +5125,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468337599"/>
+        <c:crossAx val="-147139984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5131,19 +5144,19 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -5186,6 +5199,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5226,118 +5240,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9725</c:v>
+                  <c:v>-9725.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-725</c:v>
+                  <c:v>-725.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-725</c:v>
+                  <c:v>-725.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-725</c:v>
+                  <c:v>-725.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-725</c:v>
+                  <c:v>-725.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-725</c:v>
+                  <c:v>-725.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-515</c:v>
+                  <c:v>9485.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-285</c:v>
+                  <c:v>-285.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>355</c:v>
+                  <c:v>355.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>765</c:v>
+                  <c:v>765.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1205</c:v>
+                  <c:v>1205.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7421</c:v>
+                  <c:v>-7421.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5001</c:v>
+                  <c:v>-5001.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4581</c:v>
+                  <c:v>-4581.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4191</c:v>
+                  <c:v>-4191.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3801</c:v>
+                  <c:v>-3801.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3411</c:v>
+                  <c:v>-3411.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3051</c:v>
+                  <c:v>-3051.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2691</c:v>
+                  <c:v>-2691.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2331</c:v>
+                  <c:v>-2331.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1971</c:v>
+                  <c:v>-1971.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1641</c:v>
+                  <c:v>-1641.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1311</c:v>
+                  <c:v>-1311.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3006</c:v>
+                  <c:v>-3006.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-676</c:v>
+                  <c:v>-676.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-346</c:v>
+                  <c:v>-346.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-46</c:v>
+                  <c:v>-46.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>254</c:v>
+                  <c:v>254.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>554</c:v>
+                  <c:v>554.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>854</c:v>
+                  <c:v>854.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1154</c:v>
+                  <c:v>1154.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1424</c:v>
+                  <c:v>1424.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1694</c:v>
+                  <c:v>1694.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1964</c:v>
+                  <c:v>1964.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2234</c:v>
+                  <c:v>2234.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2420-4227-AA25-4975D25BFF99}"/>
             </c:ext>
@@ -5351,11 +5365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468337599"/>
-        <c:axId val="478418383"/>
+        <c:axId val="-147670528"/>
+        <c:axId val="-147668480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468337599"/>
+        <c:axId val="-147670528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5408,15 +5422,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478418383"/>
+        <c:crossAx val="-147668480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478418383"/>
+        <c:axId val="-147668480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5470,10 +5484,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468337599"/>
+        <c:crossAx val="-147670528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5489,19 +5503,19 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -5544,6 +5558,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5560,10 +5575,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16417800395037957"/>
-          <c:y val="0.1296336206896552"/>
-          <c:w val="0.81020336431745155"/>
-          <c:h val="0.82726293103448278"/>
+          <c:x val="0.16417800395038"/>
+          <c:y val="0.129633620689655"/>
+          <c:w val="0.810203364317451"/>
+          <c:h val="0.827262931034483"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5579,118 +5594,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-9725</c:v>
+                  <c:v>-9725.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10450</c:v>
+                  <c:v>-10450.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-11175</c:v>
+                  <c:v>-11175.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11900</c:v>
+                  <c:v>-11900.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12625</c:v>
+                  <c:v>-12625.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-13350</c:v>
+                  <c:v>-13350.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-13865</c:v>
+                  <c:v>-3865.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-14150</c:v>
+                  <c:v>-4150.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-14145</c:v>
+                  <c:v>-4145.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13790</c:v>
+                  <c:v>-3790.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-13025</c:v>
+                  <c:v>-3025.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-11820</c:v>
+                  <c:v>-1820.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-19241</c:v>
+                  <c:v>-9241.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-24242</c:v>
+                  <c:v>-14242.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-28823</c:v>
+                  <c:v>-18823.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-33014</c:v>
+                  <c:v>-23014.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-36815</c:v>
+                  <c:v>-26815.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-40226</c:v>
+                  <c:v>-30226.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-43277</c:v>
+                  <c:v>-33277.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-45968</c:v>
+                  <c:v>-35968.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-48299</c:v>
+                  <c:v>-38299.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-50270</c:v>
+                  <c:v>-40270.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-51911</c:v>
+                  <c:v>-41911.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-53222</c:v>
+                  <c:v>-43222.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-56228</c:v>
+                  <c:v>-46228.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-56904</c:v>
+                  <c:v>-46904.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-57250</c:v>
+                  <c:v>-47250.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-57296</c:v>
+                  <c:v>-47296.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-57042</c:v>
+                  <c:v>-47042.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-56488</c:v>
+                  <c:v>-46488.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-55634</c:v>
+                  <c:v>-45634.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-54480</c:v>
+                  <c:v>-44480.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-53056</c:v>
+                  <c:v>-43056.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-51362</c:v>
+                  <c:v>-41362.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-49398</c:v>
+                  <c:v>-39398.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-47164</c:v>
+                  <c:v>-37164.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C5E4-4B71-A531-74593E53F5D4}"/>
             </c:ext>
@@ -5724,7 +5739,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C5E4-4B71-A531-74593E53F5D4}"/>
             </c:ext>
@@ -5738,11 +5753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468337599"/>
-        <c:axId val="478418383"/>
+        <c:axId val="-119725696"/>
+        <c:axId val="-119723648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468337599"/>
+        <c:axId val="-119725696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5795,15 +5810,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478418383"/>
+        <c:crossAx val="-119723648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478418383"/>
+        <c:axId val="-119723648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5857,10 +5872,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468337599"/>
+        <c:crossAx val="-119725696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5876,19 +5891,19 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -5927,6 +5942,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5971,118 +5987,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>210</c:v>
+                  <c:v>10210.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>440</c:v>
+                  <c:v>440.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>730</c:v>
+                  <c:v>730.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1080</c:v>
+                  <c:v>1080.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1490</c:v>
+                  <c:v>1490.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1930</c:v>
+                  <c:v>1930.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2430</c:v>
+                  <c:v>2430.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2850</c:v>
+                  <c:v>2850.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3270</c:v>
+                  <c:v>3270.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3660</c:v>
+                  <c:v>3660.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4050</c:v>
+                  <c:v>4050.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4440</c:v>
+                  <c:v>4440.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4800</c:v>
+                  <c:v>4800.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5160</c:v>
+                  <c:v>5160.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5520</c:v>
+                  <c:v>5520.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5880</c:v>
+                  <c:v>5880.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6210</c:v>
+                  <c:v>6210.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6540</c:v>
+                  <c:v>6540.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6870</c:v>
+                  <c:v>6870.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7200</c:v>
+                  <c:v>7200.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7530</c:v>
+                  <c:v>7530.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7830</c:v>
+                  <c:v>7830.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8130</c:v>
+                  <c:v>8130.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8430</c:v>
+                  <c:v>8430.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8730</c:v>
+                  <c:v>8730.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9030</c:v>
+                  <c:v>9030.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9300</c:v>
+                  <c:v>9300.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9570</c:v>
+                  <c:v>9570.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9840</c:v>
+                  <c:v>9840.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10110</c:v>
+                  <c:v>10110.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10380</c:v>
+                  <c:v>10380.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10620</c:v>
+                  <c:v>10620.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10860</c:v>
+                  <c:v>10860.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11100</c:v>
+                  <c:v>11100.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11340</c:v>
+                  <c:v>11340.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11580</c:v>
+                  <c:v>11580.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D8BF-41C0-AE8D-7108FD833946}"/>
             </c:ext>
@@ -6120,118 +6136,118 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>9725</c:v>
+                  <c:v>9725.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>725</c:v>
+                  <c:v>725.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>725</c:v>
+                  <c:v>725.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>725</c:v>
+                  <c:v>725.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>725</c:v>
+                  <c:v>725.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>725</c:v>
+                  <c:v>725.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>725</c:v>
+                  <c:v>725.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>725</c:v>
+                  <c:v>725.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>725</c:v>
+                  <c:v>725.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>725</c:v>
+                  <c:v>725.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>725</c:v>
+                  <c:v>725.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>725</c:v>
+                  <c:v>725.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9851</c:v>
+                  <c:v>9851.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7851</c:v>
+                  <c:v>7851.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7851</c:v>
+                  <c:v>7851.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7851</c:v>
+                  <c:v>7851.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7851</c:v>
+                  <c:v>7851.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7851</c:v>
+                  <c:v>7851.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7851</c:v>
+                  <c:v>7851.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7851</c:v>
+                  <c:v>7851.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7851</c:v>
+                  <c:v>7851.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7851</c:v>
+                  <c:v>7851.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7851</c:v>
+                  <c:v>7851.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7851</c:v>
+                  <c:v>7851.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9876</c:v>
+                  <c:v>9876.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7876</c:v>
+                  <c:v>7876.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7876</c:v>
+                  <c:v>7876.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7876</c:v>
+                  <c:v>7876.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7876</c:v>
+                  <c:v>7876.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7876</c:v>
+                  <c:v>7876.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7876</c:v>
+                  <c:v>7876.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7876</c:v>
+                  <c:v>7876.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7876</c:v>
+                  <c:v>7876.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7876</c:v>
+                  <c:v>7876.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7876</c:v>
+                  <c:v>7876.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7876</c:v>
+                  <c:v>7876.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-D8BF-41C0-AE8D-7108FD833946}"/>
             </c:ext>
@@ -6245,11 +6261,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468337599"/>
-        <c:axId val="478418383"/>
+        <c:axId val="-119572496"/>
+        <c:axId val="-57438688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468337599"/>
+        <c:axId val="-119572496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6302,15 +6318,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478418383"/>
+        <c:crossAx val="-57438688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478418383"/>
+        <c:axId val="-57438688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6364,10 +6380,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468337599"/>
+        <c:crossAx val="-119572496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6383,12 +6399,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7526,7 +7542,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BEDEBF-693D-4546-8CBD-58F56AC5B996}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3BEDEBF-693D-4546-8CBD-58F56AC5B996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7564,7 +7580,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C404FF-F9F1-440A-A48C-C34A0BD6623E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C404FF-F9F1-440A-A48C-C34A0BD6623E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7607,7 +7623,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8335F2E9-F04B-48F4-A38E-C1FECE132AAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8335F2E9-F04B-48F4-A38E-C1FECE132AAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7645,7 +7661,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDC0C67-C01D-45CC-861A-479DCF258D0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DDC0C67-C01D-45CC-861A-479DCF258D0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7683,7 +7699,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3010B105-C543-408A-B74B-BC0B0E40A618}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3010B105-C543-408A-B74B-BC0B0E40A618}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7721,7 +7737,7 @@
         <xdr:cNvPr id="5" name="Diagramm 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DC151F-767F-4ACE-BF7C-B71FB6E9FDD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01DC151F-767F-4ACE-BF7C-B71FB6E9FDD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7759,7 +7775,7 @@
         <xdr:cNvPr id="6" name="Diagramm 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382C76D2-769D-45EA-9087-A98019AEFB73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{382C76D2-769D-45EA-9087-A98019AEFB73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7797,7 +7813,7 @@
         <xdr:cNvPr id="7" name="Diagramm 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE1D665-F16E-441C-8267-F885AB7BBEF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAE1D665-F16E-441C-8267-F885AB7BBEF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8116,26 +8132,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DFB736-33AD-48F1-9A2F-645E6D17BC5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="39" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="39" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8249,14 +8265,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8"/>
       <c r="AM2" s="8"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8373,7 +8389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -8526,7 +8542,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -8676,7 +8692,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -8828,7 +8844,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -8981,7 +8997,7 @@
         <v>10980</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
@@ -8990,8 +9006,8 @@
         <v>70</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="28"/>
-        <v>210</v>
+        <f>D4+D7+C11</f>
+        <v>10210</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="28"/>
@@ -9134,166 +9150,172 @@
         <v>11580</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
         <v>49</v>
       </c>
       <c r="AM9" s="8"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D10" s="5">
         <f>C10+D8</f>
-        <v>210</v>
+        <v>10210</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ref="E10:AM10" si="29">D10+E8</f>
-        <v>650</v>
+        <v>10650</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="29"/>
-        <v>1380</v>
+        <v>11380</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="29"/>
-        <v>2460</v>
+        <v>12460</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="29"/>
-        <v>3950</v>
+        <v>13950</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="29"/>
-        <v>5880</v>
+        <v>15880</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="29"/>
-        <v>8310</v>
+        <v>18310</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="29"/>
-        <v>11160</v>
+        <v>21160</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="29"/>
-        <v>14430</v>
+        <v>24430</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" si="29"/>
-        <v>18090</v>
+        <v>28090</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" si="29"/>
-        <v>22140</v>
+        <v>32140</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="29"/>
-        <v>26580</v>
+        <v>36580</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="29"/>
-        <v>31380</v>
+        <v>41380</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="29"/>
-        <v>36540</v>
+        <v>46540</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="29"/>
-        <v>42060</v>
+        <v>52060</v>
       </c>
       <c r="S10" s="5">
         <f t="shared" si="29"/>
-        <v>47940</v>
+        <v>57940</v>
       </c>
       <c r="T10" s="5">
         <f t="shared" si="29"/>
-        <v>54150</v>
+        <v>64150</v>
       </c>
       <c r="U10" s="5">
         <f t="shared" si="29"/>
-        <v>60690</v>
+        <v>70690</v>
       </c>
       <c r="V10" s="5">
         <f t="shared" si="29"/>
-        <v>67560</v>
+        <v>77560</v>
       </c>
       <c r="W10" s="5">
         <f t="shared" si="29"/>
-        <v>74760</v>
+        <v>84760</v>
       </c>
       <c r="X10" s="5">
         <f t="shared" si="29"/>
-        <v>82290</v>
+        <v>92290</v>
       </c>
       <c r="Y10" s="5">
         <f t="shared" si="29"/>
-        <v>90120</v>
+        <v>100120</v>
       </c>
       <c r="Z10" s="5">
         <f t="shared" si="29"/>
-        <v>98250</v>
+        <v>108250</v>
       </c>
       <c r="AA10" s="5">
         <f t="shared" si="29"/>
-        <v>106680</v>
+        <v>116680</v>
       </c>
       <c r="AB10" s="5">
         <f t="shared" si="29"/>
-        <v>115410</v>
+        <v>125410</v>
       </c>
       <c r="AC10" s="5">
         <f t="shared" si="29"/>
-        <v>124440</v>
+        <v>134440</v>
       </c>
       <c r="AD10" s="5">
         <f t="shared" si="29"/>
-        <v>133740</v>
+        <v>143740</v>
       </c>
       <c r="AE10" s="5">
         <f t="shared" si="29"/>
-        <v>143310</v>
+        <v>153310</v>
       </c>
       <c r="AF10" s="5">
         <f t="shared" si="29"/>
-        <v>153150</v>
+        <v>163150</v>
       </c>
       <c r="AG10" s="5">
         <f t="shared" si="29"/>
-        <v>163260</v>
+        <v>173260</v>
       </c>
       <c r="AH10" s="5">
         <f t="shared" si="29"/>
-        <v>173640</v>
+        <v>183640</v>
       </c>
       <c r="AI10" s="5">
         <f t="shared" si="29"/>
-        <v>184260</v>
+        <v>194260</v>
       </c>
       <c r="AJ10" s="5">
         <f t="shared" si="29"/>
-        <v>195120</v>
+        <v>205120</v>
       </c>
       <c r="AK10" s="5">
         <f t="shared" si="29"/>
-        <v>206220</v>
+        <v>216220</v>
       </c>
       <c r="AL10" s="5">
         <f t="shared" si="29"/>
-        <v>217560</v>
+        <v>227560</v>
       </c>
       <c r="AM10" s="15">
         <f t="shared" si="29"/>
-        <v>229140</v>
+        <v>239140</v>
       </c>
       <c r="AN10" s="5">
         <f>AM10+AN8</f>
-        <v>229140</v>
+        <v>239140</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="13">
+        <v>10000</v>
+      </c>
       <c r="AM11" s="8"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -9305,7 +9327,7 @@
       </c>
       <c r="AM12" s="8"/>
     </row>
-    <row r="13" spans="1:40" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -9314,7 +9336,7 @@
       </c>
       <c r="AM13" s="8"/>
     </row>
-    <row r="14" spans="1:40" ht="14.95" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>900</v>
       </c>
@@ -9466,13 +9488,13 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AM15" s="8"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AM16" s="8"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -9627,7 +9649,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>53</v>
       </c>
@@ -9779,7 +9801,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>54</v>
       </c>
@@ -9931,7 +9953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -9947,7 +9969,7 @@
       </c>
       <c r="AM20" s="8"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9972,7 +9994,7 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="5"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>55</v>
       </c>
@@ -9985,10 +10007,10 @@
       </c>
       <c r="AM22" s="8"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AM23" s="8"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D24" s="5">
         <f>SUM(D17:D22)</f>
         <v>9725</v>
@@ -10134,7 +10156,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -10173,7 +10195,7 @@
       <c r="AM25" s="16"/>
       <c r="AN25" s="14"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D26" s="5">
         <f>C26+D24</f>
         <v>9725</v>
@@ -10323,10 +10345,10 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AM27" s="8"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -10481,10 +10503,10 @@
         <v>750</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AM29" s="8"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -10497,7 +10519,7 @@
       </c>
       <c r="AM30" s="8"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>62</v>
       </c>
@@ -10507,7 +10529,7 @@
       </c>
       <c r="AM31" s="8"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>63</v>
       </c>
@@ -10517,7 +10539,7 @@
       </c>
       <c r="AM32" s="8"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>64</v>
       </c>
@@ -10527,7 +10549,7 @@
       </c>
       <c r="AM33" s="8"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>59</v>
       </c>
@@ -10645,7 +10667,7 @@
       </c>
       <c r="AN34" s="13"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D35" s="13">
         <f>C35+D34</f>
         <v>0</v>
@@ -10795,7 +10817,7 @@
         <v>170424</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
@@ -10944,177 +10966,177 @@
         <v>7876</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="5">
         <f>D10-D26-D35</f>
-        <v>-9515</v>
+        <v>485</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" ref="E37:AN37" si="43">E10-E26-E35</f>
-        <v>-9800</v>
+        <v>200</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="43"/>
-        <v>-9795</v>
+        <v>205</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="43"/>
-        <v>-9440</v>
+        <v>560</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="43"/>
-        <v>-8675</v>
+        <v>1325</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="43"/>
-        <v>-7470</v>
+        <v>2530</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" si="43"/>
-        <v>-5765</v>
+        <v>4235</v>
       </c>
       <c r="K37" s="5">
         <f t="shared" si="43"/>
-        <v>-3640</v>
+        <v>6360</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="43"/>
-        <v>-1095</v>
+        <v>8905</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" si="43"/>
-        <v>1840</v>
+        <v>11840</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="43"/>
-        <v>5165</v>
+        <v>15165</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" si="43"/>
-        <v>8880</v>
+        <v>18880</v>
       </c>
       <c r="P37" s="5">
         <f t="shared" si="43"/>
-        <v>3829</v>
+        <v>13829</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="43"/>
-        <v>1138</v>
+        <v>11138</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="43"/>
-        <v>-1193</v>
+        <v>8807</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" si="43"/>
-        <v>-3164</v>
+        <v>6836</v>
       </c>
       <c r="T37" s="5">
         <f t="shared" si="43"/>
-        <v>-4805</v>
+        <v>5195</v>
       </c>
       <c r="U37" s="5">
         <f t="shared" si="43"/>
-        <v>-6116</v>
+        <v>3884</v>
       </c>
       <c r="V37" s="5">
         <f t="shared" si="43"/>
-        <v>-7097</v>
+        <v>2903</v>
       </c>
       <c r="W37" s="5">
         <f t="shared" si="43"/>
-        <v>-7748</v>
+        <v>2252</v>
       </c>
       <c r="X37" s="5">
         <f t="shared" si="43"/>
-        <v>-8069</v>
+        <v>1931</v>
       </c>
       <c r="Y37" s="5">
         <f t="shared" si="43"/>
-        <v>-8090</v>
+        <v>1910</v>
       </c>
       <c r="Z37" s="5">
         <f t="shared" si="43"/>
-        <v>-7811</v>
+        <v>2189</v>
       </c>
       <c r="AA37" s="5">
         <f t="shared" si="43"/>
-        <v>-7232</v>
+        <v>2768</v>
       </c>
       <c r="AB37" s="5">
         <f t="shared" si="43"/>
-        <v>-8378</v>
+        <v>1622</v>
       </c>
       <c r="AC37" s="5">
         <f t="shared" si="43"/>
-        <v>-7224</v>
+        <v>2776</v>
       </c>
       <c r="AD37" s="5">
         <f t="shared" si="43"/>
-        <v>-5800</v>
+        <v>4200</v>
       </c>
       <c r="AE37" s="5">
         <f t="shared" si="43"/>
-        <v>-4106</v>
+        <v>5894</v>
       </c>
       <c r="AF37" s="5">
         <f t="shared" si="43"/>
-        <v>-2142</v>
+        <v>7858</v>
       </c>
       <c r="AG37" s="5">
         <f t="shared" si="43"/>
-        <v>92</v>
+        <v>10092</v>
       </c>
       <c r="AH37" s="5">
         <f t="shared" si="43"/>
-        <v>2596</v>
+        <v>12596</v>
       </c>
       <c r="AI37" s="5">
         <f t="shared" si="43"/>
-        <v>5340</v>
+        <v>15340</v>
       </c>
       <c r="AJ37" s="5">
         <f t="shared" si="43"/>
-        <v>8324</v>
+        <v>18324</v>
       </c>
       <c r="AK37" s="5">
         <f t="shared" si="43"/>
-        <v>11548</v>
+        <v>21548</v>
       </c>
       <c r="AL37" s="5">
         <f t="shared" si="43"/>
-        <v>15012</v>
+        <v>25012</v>
       </c>
       <c r="AM37" s="15">
         <f t="shared" si="43"/>
-        <v>18716</v>
+        <v>28716</v>
       </c>
       <c r="AN37" s="5">
         <f t="shared" si="43"/>
-        <v>18716</v>
+        <v>28716</v>
       </c>
       <c r="AO37" s="5"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="AM38" s="8"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="5">
         <f>D8-D24-D34</f>
-        <v>-9515</v>
+        <v>485</v>
       </c>
       <c r="E39" s="5">
         <f>E8-E24-E34</f>
         <v>-285</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" ref="E39:AM39" si="44">F8-F24-F34</f>
+        <f t="shared" ref="F39:AM39" si="44">F8-F24-F34</f>
         <v>5</v>
       </c>
       <c r="G39" s="5">
@@ -11250,10 +11272,10 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D41">
         <v>1</v>
       </c>
@@ -11273,13 +11295,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>68</v>
       </c>
       <c r="J42" s="5">
         <f>D8</f>
-        <v>210</v>
+        <v>10210</v>
       </c>
       <c r="K42" s="5">
         <f t="shared" ref="K42:AM42" si="45">E8</f>
@@ -11398,7 +11420,7 @@
         <v>10110</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>69</v>
       </c>
@@ -11428,7 +11450,7 @@
       </c>
       <c r="J43" s="5">
         <f t="shared" si="46"/>
-        <v>-515</v>
+        <v>9485</v>
       </c>
       <c r="K43" s="5">
         <f t="shared" si="46"/>
@@ -11547,7 +11569,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D45" s="13">
         <f>C45+D42</f>
         <v>0</v>
@@ -11574,126 +11596,126 @@
       </c>
       <c r="J45" s="13">
         <f t="shared" si="47"/>
-        <v>210</v>
+        <v>10210</v>
       </c>
       <c r="K45" s="13">
         <f t="shared" si="47"/>
-        <v>650</v>
+        <v>10650</v>
       </c>
       <c r="L45" s="13">
         <f t="shared" si="47"/>
-        <v>1380</v>
+        <v>11380</v>
       </c>
       <c r="M45" s="13">
         <f t="shared" si="47"/>
-        <v>2460</v>
+        <v>12460</v>
       </c>
       <c r="N45" s="13">
         <f t="shared" si="47"/>
-        <v>3950</v>
+        <v>13950</v>
       </c>
       <c r="O45" s="13">
         <f t="shared" si="47"/>
-        <v>5880</v>
+        <v>15880</v>
       </c>
       <c r="P45" s="13">
         <f t="shared" si="47"/>
-        <v>8310</v>
+        <v>18310</v>
       </c>
       <c r="Q45" s="13">
         <f t="shared" si="47"/>
-        <v>11160</v>
+        <v>21160</v>
       </c>
       <c r="R45" s="13">
         <f t="shared" si="47"/>
-        <v>14430</v>
+        <v>24430</v>
       </c>
       <c r="S45" s="13">
         <f t="shared" si="47"/>
-        <v>18090</v>
+        <v>28090</v>
       </c>
       <c r="T45" s="13">
         <f t="shared" si="47"/>
-        <v>22140</v>
+        <v>32140</v>
       </c>
       <c r="U45" s="13">
         <f t="shared" si="47"/>
-        <v>26580</v>
+        <v>36580</v>
       </c>
       <c r="V45" s="13">
         <f t="shared" si="47"/>
-        <v>31380</v>
+        <v>41380</v>
       </c>
       <c r="W45" s="13">
         <f t="shared" si="47"/>
-        <v>36540</v>
+        <v>46540</v>
       </c>
       <c r="X45" s="13">
         <f t="shared" si="47"/>
-        <v>42060</v>
+        <v>52060</v>
       </c>
       <c r="Y45" s="13">
         <f t="shared" si="47"/>
-        <v>47940</v>
+        <v>57940</v>
       </c>
       <c r="Z45" s="13">
         <f t="shared" si="47"/>
-        <v>54150</v>
+        <v>64150</v>
       </c>
       <c r="AA45" s="13">
         <f t="shared" si="47"/>
-        <v>60690</v>
+        <v>70690</v>
       </c>
       <c r="AB45" s="13">
         <f t="shared" si="47"/>
-        <v>67560</v>
+        <v>77560</v>
       </c>
       <c r="AC45" s="13">
         <f t="shared" si="47"/>
-        <v>74760</v>
+        <v>84760</v>
       </c>
       <c r="AD45" s="13">
         <f t="shared" si="47"/>
-        <v>82290</v>
+        <v>92290</v>
       </c>
       <c r="AE45" s="13">
         <f t="shared" si="47"/>
-        <v>90120</v>
+        <v>100120</v>
       </c>
       <c r="AF45" s="13">
         <f t="shared" si="47"/>
-        <v>98250</v>
+        <v>108250</v>
       </c>
       <c r="AG45" s="13">
         <f t="shared" si="47"/>
-        <v>106680</v>
+        <v>116680</v>
       </c>
       <c r="AH45" s="13">
         <f t="shared" si="47"/>
-        <v>115410</v>
+        <v>125410</v>
       </c>
       <c r="AI45" s="13">
         <f t="shared" si="47"/>
-        <v>124440</v>
+        <v>134440</v>
       </c>
       <c r="AJ45" s="13">
         <f t="shared" si="47"/>
-        <v>133740</v>
+        <v>143740</v>
       </c>
       <c r="AK45" s="13">
         <f t="shared" si="47"/>
-        <v>143310</v>
+        <v>153310</v>
       </c>
       <c r="AL45" s="13">
         <f t="shared" si="47"/>
-        <v>153150</v>
+        <v>163150</v>
       </c>
       <c r="AM45" s="13">
         <f t="shared" si="47"/>
-        <v>163260</v>
+        <v>173260</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>70</v>
       </c>
@@ -11723,123 +11745,123 @@
       </c>
       <c r="J46" s="5">
         <f t="shared" si="48"/>
-        <v>-13865</v>
+        <v>-3865</v>
       </c>
       <c r="K46" s="5">
         <f t="shared" si="48"/>
-        <v>-14150</v>
+        <v>-4150</v>
       </c>
       <c r="L46" s="5">
         <f t="shared" si="48"/>
-        <v>-14145</v>
+        <v>-4145</v>
       </c>
       <c r="M46" s="5">
         <f t="shared" si="48"/>
-        <v>-13790</v>
+        <v>-3790</v>
       </c>
       <c r="N46" s="5">
         <f t="shared" si="48"/>
-        <v>-13025</v>
+        <v>-3025</v>
       </c>
       <c r="O46" s="5">
         <f t="shared" si="48"/>
-        <v>-11820</v>
+        <v>-1820</v>
       </c>
       <c r="P46" s="5">
         <f t="shared" si="48"/>
-        <v>-19241</v>
+        <v>-9241</v>
       </c>
       <c r="Q46" s="5">
         <f t="shared" si="48"/>
-        <v>-24242</v>
+        <v>-14242</v>
       </c>
       <c r="R46" s="5">
         <f t="shared" si="48"/>
-        <v>-28823</v>
+        <v>-18823</v>
       </c>
       <c r="S46" s="5">
         <f t="shared" si="48"/>
-        <v>-33014</v>
+        <v>-23014</v>
       </c>
       <c r="T46" s="5">
         <f t="shared" si="48"/>
-        <v>-36815</v>
+        <v>-26815</v>
       </c>
       <c r="U46" s="5">
         <f t="shared" si="48"/>
-        <v>-40226</v>
+        <v>-30226</v>
       </c>
       <c r="V46" s="5">
         <f t="shared" si="48"/>
-        <v>-43277</v>
+        <v>-33277</v>
       </c>
       <c r="W46" s="5">
         <f t="shared" si="48"/>
-        <v>-45968</v>
+        <v>-35968</v>
       </c>
       <c r="X46" s="5">
         <f t="shared" si="48"/>
-        <v>-48299</v>
+        <v>-38299</v>
       </c>
       <c r="Y46" s="5">
         <f t="shared" si="48"/>
-        <v>-50270</v>
+        <v>-40270</v>
       </c>
       <c r="Z46" s="5">
         <f t="shared" si="48"/>
-        <v>-51911</v>
+        <v>-41911</v>
       </c>
       <c r="AA46" s="5">
         <f t="shared" si="48"/>
-        <v>-53222</v>
+        <v>-43222</v>
       </c>
       <c r="AB46" s="5">
         <f t="shared" si="48"/>
-        <v>-56228</v>
+        <v>-46228</v>
       </c>
       <c r="AC46" s="5">
         <f t="shared" si="48"/>
-        <v>-56904</v>
+        <v>-46904</v>
       </c>
       <c r="AD46" s="5">
         <f t="shared" si="48"/>
-        <v>-57250</v>
+        <v>-47250</v>
       </c>
       <c r="AE46" s="5">
         <f t="shared" si="48"/>
-        <v>-57296</v>
+        <v>-47296</v>
       </c>
       <c r="AF46" s="5">
         <f t="shared" si="48"/>
-        <v>-57042</v>
+        <v>-47042</v>
       </c>
       <c r="AG46" s="5">
         <f t="shared" si="48"/>
-        <v>-56488</v>
+        <v>-46488</v>
       </c>
       <c r="AH46" s="5">
         <f t="shared" si="48"/>
-        <v>-55634</v>
+        <v>-45634</v>
       </c>
       <c r="AI46" s="5">
         <f t="shared" si="48"/>
-        <v>-54480</v>
+        <v>-44480</v>
       </c>
       <c r="AJ46" s="5">
         <f t="shared" si="48"/>
-        <v>-53056</v>
+        <v>-43056</v>
       </c>
       <c r="AK46" s="5">
         <f t="shared" si="48"/>
-        <v>-51362</v>
+        <v>-41362</v>
       </c>
       <c r="AL46" s="5">
         <f t="shared" si="48"/>
-        <v>-49398</v>
+        <v>-39398</v>
       </c>
       <c r="AM46" s="5">
         <f t="shared" si="48"/>
-        <v>-47164</v>
+        <v>-37164</v>
       </c>
     </row>
   </sheetData>
@@ -11881,20 +11903,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C8270A-33D7-4CBC-9323-1B991FD1D508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -11902,7 +11924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -11910,10 +11932,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -11921,7 +11943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -11929,19 +11951,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="5">
         <f>Tabelle1!AN37</f>
-        <v>18716</v>
+        <v>28716</v>
       </c>
     </row>
   </sheetData>
@@ -11959,14 +11981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1D9DEE-1B26-4B26-A83E-C708A7ADE389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
